--- a/KKBox Customer Churn/Legacy Documents/Visual Assets.xlsx
+++ b/KKBox Customer Churn/Legacy Documents/Visual Assets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\J-5\GitHub\Thinkful-Course-Module-Excercises\Capstones\KKBox Customer Churn\Legacy Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\J-5\GitHub\Project Portfolio\KKBox Customer Churn\Legacy Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="541" documentId="8_{4B8B00A4-E49C-4C7E-BFFC-C251F04A5DB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CF9BB937-933F-4A80-9AD6-A426905EE419}"/>
+  <xr:revisionPtr revIDLastSave="558" documentId="8_{4B8B00A4-E49C-4C7E-BFFC-C251F04A5DB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{446A2056-DA57-4406-BEC9-B7B4BAFCF3BB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B1BA04CD-3444-404F-BDB5-AF4816CAC5D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B1BA04CD-3444-404F-BDB5-AF4816CAC5D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="76">
   <si>
     <t xml:space="preserve">GBT-1to1-Model1 </t>
   </si>
@@ -241,6 +241,24 @@
   </si>
   <si>
     <t>RFC_GBM_BEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBT-3to1-Model2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBT-5to1-Model2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBT-7to1-Model2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBT-9to1-Model2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBT-11to1-Model2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBT-13o1-Model2 </t>
   </si>
 </sst>
 </file>
@@ -563,14 +581,8 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -584,11 +596,14 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -596,11 +611,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -919,43 +937,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8EF2881-0D28-4EEC-97D1-A43FE1F69A76}">
   <dimension ref="A1:BD368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AK28" sqref="AK28"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="7" width="10.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" style="2" customWidth="1"/>
-    <col min="9" max="10" width="13.44140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="30.109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" style="2" customWidth="1"/>
-    <col min="15" max="16" width="13.44140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="6.5546875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="12.6640625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="17.88671875" style="2" customWidth="1"/>
-    <col min="20" max="21" width="13.44140625" style="2" customWidth="1"/>
-    <col min="22" max="24" width="8.88671875" style="2"/>
-    <col min="25" max="28" width="11.109375" style="2" customWidth="1"/>
-    <col min="29" max="29" width="2.6640625" style="2" customWidth="1"/>
-    <col min="30" max="30" width="11.109375" style="2" customWidth="1"/>
+    <col min="1" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="2" customWidth="1"/>
+    <col min="9" max="10" width="13.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="2"/>
+    <col min="12" max="12" width="30.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" style="2" customWidth="1"/>
+    <col min="15" max="16" width="13.42578125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" style="2" customWidth="1"/>
+    <col min="20" max="21" width="13.42578125" style="2" customWidth="1"/>
+    <col min="22" max="24" width="8.85546875" style="2"/>
+    <col min="25" max="28" width="11.140625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="2.7109375" style="2" customWidth="1"/>
+    <col min="30" max="30" width="11.140625" style="2" customWidth="1"/>
     <col min="31" max="31" width="27" style="3" customWidth="1"/>
-    <col min="32" max="33" width="10.6640625" style="3" customWidth="1"/>
-    <col min="34" max="34" width="14.109375" style="3" customWidth="1"/>
-    <col min="35" max="35" width="10.6640625" style="3" customWidth="1"/>
-    <col min="36" max="36" width="15.33203125" style="3" customWidth="1"/>
-    <col min="37" max="37" width="11.109375" style="2" customWidth="1"/>
-    <col min="38" max="38" width="26.88671875" style="2" customWidth="1"/>
-    <col min="39" max="43" width="11.5546875" style="2" customWidth="1"/>
-    <col min="44" max="54" width="8.88671875" style="2"/>
+    <col min="32" max="33" width="10.7109375" style="3" customWidth="1"/>
+    <col min="34" max="34" width="14.140625" style="3" customWidth="1"/>
+    <col min="35" max="35" width="10.7109375" style="3" customWidth="1"/>
+    <col min="36" max="36" width="15.28515625" style="3" customWidth="1"/>
+    <col min="37" max="37" width="11.140625" style="2" customWidth="1"/>
+    <col min="38" max="38" width="26.85546875" style="2" customWidth="1"/>
+    <col min="39" max="43" width="11.5703125" style="2" customWidth="1"/>
+    <col min="44" max="54" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AE1" s="3"/>
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
@@ -963,29 +981,29 @@
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
     </row>
-    <row r="2" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+    <row r="2" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="M2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
@@ -993,25 +1011,25 @@
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
     </row>
-    <row r="3" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
+    <row r="3" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
@@ -1019,19 +1037,19 @@
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
     </row>
-    <row r="4" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+    <row r="4" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="G4" s="23" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="G4" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
@@ -1039,7 +1057,7 @@
       <c r="AI4" s="3"/>
       <c r="AJ4" s="3"/>
     </row>
-    <row r="5" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
@@ -1047,44 +1065,44 @@
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
     </row>
-    <row r="6" spans="1:54" s="1" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="21" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="21" t="s">
+      <c r="H6" s="23"/>
+      <c r="I6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="21"/>
+      <c r="J6" s="26"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="25"/>
-      <c r="O6" s="21" t="s">
+      <c r="M6" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="23"/>
+      <c r="O6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="21"/>
+      <c r="P6" s="26"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="S6" s="25"/>
-      <c r="T6" s="21" t="s">
+      <c r="R6" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="S6" s="23"/>
+      <c r="T6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="U6" s="21"/>
+      <c r="U6" s="26"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
@@ -1119,10 +1137,10 @@
       <c r="BA6" s="3"/>
       <c r="BB6" s="3"/>
     </row>
-    <row r="7" spans="1:54" s="1" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1130,8 +1148,8 @@
         <v>3</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1140,8 +1158,8 @@
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="27"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="25"/>
       <c r="O7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1149,8 +1167,8 @@
         <v>3</v>
       </c>
       <c r="Q7" s="3"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="27"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="25"/>
       <c r="T7" s="6" t="s">
         <v>2</v>
       </c>
@@ -1160,32 +1178,32 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-      <c r="Y7" s="24" t="s">
+      <c r="Y7" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="21" t="s">
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="AB7" s="21"/>
+      <c r="AB7" s="26"/>
       <c r="AC7" s="3"/>
-      <c r="AD7" s="24" t="s">
+      <c r="AD7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="21" t="s">
+      <c r="AE7" s="23"/>
+      <c r="AF7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="AG7" s="21"/>
+      <c r="AG7" s="26"/>
       <c r="AH7" s="3"/>
-      <c r="AI7" s="24" t="s">
+      <c r="AI7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AJ7" s="25"/>
-      <c r="AK7" s="21" t="s">
+      <c r="AJ7" s="23"/>
+      <c r="AK7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="AL7" s="21"/>
+      <c r="AL7" s="26"/>
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
@@ -1203,9 +1221,9 @@
       <c r="BA7" s="3"/>
       <c r="BB7" s="3"/>
     </row>
-    <row r="8" spans="1:54" s="1" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1218,7 +1236,7 @@
         <v>106002</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="21" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -1232,7 +1250,7 @@
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="21" t="s">
         <v>1</v>
       </c>
       <c r="N8" s="5" t="s">
@@ -1245,7 +1263,7 @@
         <v>74441</v>
       </c>
       <c r="Q8" s="3"/>
-      <c r="R8" s="22" t="s">
+      <c r="R8" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S8" s="5" t="s">
@@ -1260,8 +1278,8 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="27"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="25"/>
       <c r="AA8" s="6" t="s">
         <v>2</v>
       </c>
@@ -1269,8 +1287,8 @@
         <v>3</v>
       </c>
       <c r="AC8" s="3"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="27"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="25"/>
       <c r="AF8" s="6" t="s">
         <v>2</v>
       </c>
@@ -1278,8 +1296,8 @@
         <v>3</v>
       </c>
       <c r="AH8" s="3"/>
-      <c r="AI8" s="26"/>
-      <c r="AJ8" s="27"/>
+      <c r="AI8" s="24"/>
+      <c r="AJ8" s="25"/>
       <c r="AK8" s="6" t="s">
         <v>2</v>
       </c>
@@ -1303,9 +1321,9 @@
       <c r="BA8" s="3"/>
       <c r="BB8" s="3"/>
     </row>
-    <row r="9" spans="1:54" s="1" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="22"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="5" t="s">
         <v>3</v>
       </c>
@@ -1316,7 +1334,7 @@
         <v>16722</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="22"/>
+      <c r="G9" s="21"/>
       <c r="H9" s="5" t="s">
         <v>3</v>
       </c>
@@ -1328,7 +1346,7 @@
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="22"/>
+      <c r="M9" s="21"/>
       <c r="N9" s="5" t="s">
         <v>3</v>
       </c>
@@ -1339,7 +1357,7 @@
         <v>16194</v>
       </c>
       <c r="Q9" s="3"/>
-      <c r="R9" s="22"/>
+      <c r="R9" s="21"/>
       <c r="S9" s="5" t="s">
         <v>3</v>
       </c>
@@ -1352,7 +1370,7 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-      <c r="Y9" s="22" t="s">
+      <c r="Y9" s="21" t="s">
         <v>1</v>
       </c>
       <c r="Z9" s="5" t="s">
@@ -1365,7 +1383,7 @@
         <v>109475</v>
       </c>
       <c r="AC9" s="3"/>
-      <c r="AD9" s="22" t="s">
+      <c r="AD9" s="21" t="s">
         <v>1</v>
       </c>
       <c r="AE9" s="5" t="s">
@@ -1378,7 +1396,7 @@
         <v>107540</v>
       </c>
       <c r="AH9" s="3"/>
-      <c r="AI9" s="22" t="s">
+      <c r="AI9" s="21" t="s">
         <v>1</v>
       </c>
       <c r="AJ9" s="5" t="s">
@@ -1407,7 +1425,7 @@
       <c r="BA9" s="3"/>
       <c r="BB9" s="3"/>
     </row>
-    <row r="10" spans="1:54" s="2" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:54" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1417,7 +1435,7 @@
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
-      <c r="Y10" s="22"/>
+      <c r="Y10" s="21"/>
       <c r="Z10" s="5" t="s">
         <v>3</v>
       </c>
@@ -1427,7 +1445,7 @@
       <c r="AB10" s="4">
         <v>16555</v>
       </c>
-      <c r="AD10" s="22"/>
+      <c r="AD10" s="21"/>
       <c r="AE10" s="5" t="s">
         <v>3</v>
       </c>
@@ -1438,7 +1456,7 @@
         <v>16453</v>
       </c>
       <c r="AH10" s="3"/>
-      <c r="AI10" s="22"/>
+      <c r="AI10" s="21"/>
       <c r="AJ10" s="5" t="s">
         <v>3</v>
       </c>
@@ -1449,40 +1467,40 @@
         <v>16441</v>
       </c>
     </row>
-    <row r="11" spans="1:54" s="2" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="24" t="s">
+    <row r="11" spans="1:54" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="21" t="s">
+      <c r="C11" s="23"/>
+      <c r="D11" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="G11" s="24" t="s">
+      <c r="E11" s="26"/>
+      <c r="G11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="21" t="s">
+      <c r="H11" s="23"/>
+      <c r="I11" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="21"/>
-      <c r="M11" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" s="25"/>
-      <c r="O11" s="21" t="s">
+      <c r="J11" s="26"/>
+      <c r="M11" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="23"/>
+      <c r="O11" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="P11" s="21"/>
+      <c r="P11" s="26"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="S11" s="25"/>
-      <c r="T11" s="21" t="s">
+      <c r="R11" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="S11" s="23"/>
+      <c r="T11" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="U11" s="21"/>
+      <c r="U11" s="26"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
@@ -1490,25 +1508,25 @@
       <c r="AI11" s="3"/>
       <c r="AJ11" s="3"/>
     </row>
-    <row r="12" spans="1:54" s="2" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
+    <row r="12" spans="1:54" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
       <c r="I12" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="26"/>
-      <c r="N12" s="27"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="25"/>
       <c r="O12" s="6" t="s">
         <v>2</v>
       </c>
@@ -1516,42 +1534,42 @@
         <v>3</v>
       </c>
       <c r="Q12" s="7"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="27"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="25"/>
       <c r="T12" s="6" t="s">
         <v>2</v>
       </c>
       <c r="U12" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Y12" s="24" t="s">
+      <c r="Y12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="21" t="s">
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="AB12" s="21"/>
-      <c r="AD12" s="24" t="s">
+      <c r="AB12" s="26"/>
+      <c r="AD12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="AE12" s="25"/>
-      <c r="AF12" s="21" t="s">
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="AG12" s="21"/>
+      <c r="AG12" s="26"/>
       <c r="AH12" s="3"/>
-      <c r="AI12" s="24" t="s">
+      <c r="AI12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="AJ12" s="25"/>
-      <c r="AK12" s="21" t="s">
+      <c r="AJ12" s="23"/>
+      <c r="AK12" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="AL12" s="21"/>
-    </row>
-    <row r="13" spans="1:54" s="2" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="22" t="s">
+      <c r="AL12" s="26"/>
+    </row>
+    <row r="13" spans="1:54" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1563,7 +1581,7 @@
       <c r="E13" s="4">
         <v>105436</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="21" t="s">
         <v>1</v>
       </c>
       <c r="H13" s="5" t="s">
@@ -1575,7 +1593,7 @@
       <c r="J13" s="4">
         <v>107540</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="M13" s="21" t="s">
         <v>1</v>
       </c>
       <c r="N13" s="5" t="s">
@@ -1588,7 +1606,7 @@
         <v>41327</v>
       </c>
       <c r="Q13" s="7"/>
-      <c r="R13" s="22" t="s">
+      <c r="R13" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S13" s="5" t="s">
@@ -1600,16 +1618,16 @@
       <c r="U13" s="8">
         <v>13130</v>
       </c>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="27"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="25"/>
       <c r="AA13" s="6" t="s">
         <v>2</v>
       </c>
       <c r="AB13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="27"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="25"/>
       <c r="AF13" s="6" t="s">
         <v>2</v>
       </c>
@@ -1617,8 +1635,8 @@
         <v>3</v>
       </c>
       <c r="AH13" s="3"/>
-      <c r="AI13" s="26"/>
-      <c r="AJ13" s="27"/>
+      <c r="AI13" s="24"/>
+      <c r="AJ13" s="25"/>
       <c r="AK13" s="6" t="s">
         <v>2</v>
       </c>
@@ -1626,8 +1644,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:54" s="2" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="22"/>
+    <row r="14" spans="1:54" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="21"/>
       <c r="C14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1637,7 +1655,7 @@
       <c r="E14" s="4">
         <v>16675</v>
       </c>
-      <c r="G14" s="22"/>
+      <c r="G14" s="21"/>
       <c r="H14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1647,7 +1665,7 @@
       <c r="J14" s="4">
         <v>16453</v>
       </c>
-      <c r="M14" s="22"/>
+      <c r="M14" s="21"/>
       <c r="N14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1658,7 +1676,7 @@
         <v>14057</v>
       </c>
       <c r="Q14" s="7"/>
-      <c r="R14" s="22"/>
+      <c r="R14" s="21"/>
       <c r="S14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1668,7 +1686,7 @@
       <c r="U14" s="8">
         <v>9384</v>
       </c>
-      <c r="Y14" s="22" t="s">
+      <c r="Y14" s="21" t="s">
         <v>1</v>
       </c>
       <c r="Z14" s="5" t="s">
@@ -1680,7 +1698,7 @@
       <c r="AB14" s="4">
         <v>91104</v>
       </c>
-      <c r="AD14" s="22" t="s">
+      <c r="AD14" s="21" t="s">
         <v>1</v>
       </c>
       <c r="AE14" s="5" t="s">
@@ -1693,7 +1711,7 @@
         <v>98714</v>
       </c>
       <c r="AH14" s="3"/>
-      <c r="AI14" s="22" t="s">
+      <c r="AI14" s="21" t="s">
         <v>1</v>
       </c>
       <c r="AJ14" s="5" t="s">
@@ -1706,7 +1724,7 @@
         <v>96577</v>
       </c>
     </row>
-    <row r="15" spans="1:54" s="2" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:54" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1716,7 +1734,7 @@
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
-      <c r="Y15" s="22"/>
+      <c r="Y15" s="21"/>
       <c r="Z15" s="5" t="s">
         <v>3</v>
       </c>
@@ -1726,7 +1744,7 @@
       <c r="AB15" s="4">
         <v>16207</v>
       </c>
-      <c r="AD15" s="22"/>
+      <c r="AD15" s="21"/>
       <c r="AE15" s="5" t="s">
         <v>3</v>
       </c>
@@ -1737,7 +1755,7 @@
         <v>16474</v>
       </c>
       <c r="AH15" s="3"/>
-      <c r="AI15" s="22"/>
+      <c r="AI15" s="21"/>
       <c r="AJ15" s="5" t="s">
         <v>3</v>
       </c>
@@ -1748,40 +1766,40 @@
         <v>16205</v>
       </c>
     </row>
-    <row r="16" spans="1:54" s="2" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="24" t="s">
+    <row r="16" spans="1:54" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="21" t="s">
+      <c r="C16" s="23"/>
+      <c r="D16" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="G16" s="24" t="s">
+      <c r="E16" s="26"/>
+      <c r="G16" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="21" t="s">
+      <c r="H16" s="23"/>
+      <c r="I16" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="21"/>
-      <c r="M16" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="N16" s="25"/>
-      <c r="O16" s="21" t="s">
+      <c r="J16" s="26"/>
+      <c r="M16" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" s="23"/>
+      <c r="O16" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="P16" s="21"/>
+      <c r="P16" s="26"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="S16" s="25"/>
-      <c r="T16" s="21" t="s">
+      <c r="R16" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="S16" s="23"/>
+      <c r="T16" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="U16" s="21"/>
+      <c r="U16" s="26"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
@@ -1789,25 +1807,25 @@
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
       <c r="I17" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="26"/>
-      <c r="N17" s="27"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="25"/>
       <c r="O17" s="6" t="s">
         <v>2</v>
       </c>
@@ -1815,22 +1833,22 @@
         <v>3</v>
       </c>
       <c r="Q17" s="7"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="27"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="25"/>
       <c r="T17" s="6" t="s">
         <v>2</v>
       </c>
       <c r="U17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Y17" s="24" t="s">
+      <c r="Y17" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="21" t="s">
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="AB17" s="21"/>
+      <c r="AB17" s="26"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
@@ -1838,8 +1856,8 @@
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="22" t="s">
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -1851,7 +1869,7 @@
       <c r="E18" s="4">
         <v>103432</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="21" t="s">
         <v>1</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -1863,7 +1881,7 @@
       <c r="J18" s="4">
         <v>103067</v>
       </c>
-      <c r="M18" s="22" t="s">
+      <c r="M18" s="21" t="s">
         <v>1</v>
       </c>
       <c r="N18" s="5" t="s">
@@ -1876,7 +1894,7 @@
         <v>27910</v>
       </c>
       <c r="Q18" s="7"/>
-      <c r="R18" s="22" t="s">
+      <c r="R18" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S18" s="5" t="s">
@@ -1888,8 +1906,8 @@
       <c r="U18" s="8">
         <v>10698</v>
       </c>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="27"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="25"/>
       <c r="AA18" s="6" t="s">
         <v>2</v>
       </c>
@@ -1933,8 +1951,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="22"/>
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="21"/>
       <c r="C19" s="5" t="s">
         <v>3</v>
       </c>
@@ -1944,7 +1962,7 @@
       <c r="E19" s="4">
         <v>16672</v>
       </c>
-      <c r="G19" s="22"/>
+      <c r="G19" s="21"/>
       <c r="H19" s="5" t="s">
         <v>3</v>
       </c>
@@ -1954,7 +1972,7 @@
       <c r="J19" s="4">
         <v>16441</v>
       </c>
-      <c r="M19" s="22"/>
+      <c r="M19" s="21"/>
       <c r="N19" s="5" t="s">
         <v>3</v>
       </c>
@@ -1965,7 +1983,7 @@
         <v>11570</v>
       </c>
       <c r="Q19" s="7"/>
-      <c r="R19" s="22"/>
+      <c r="R19" s="21"/>
       <c r="S19" s="5" t="s">
         <v>3</v>
       </c>
@@ -1975,7 +1993,7 @@
       <c r="U19" s="8">
         <v>8575</v>
       </c>
-      <c r="Y19" s="22" t="s">
+      <c r="Y19" s="21" t="s">
         <v>1</v>
       </c>
       <c r="Z19" s="5" t="s">
@@ -2024,7 +2042,7 @@
         <v>0.14593200000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:43" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:43" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2039,7 +2057,7 @@
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
-      <c r="Y20" s="22"/>
+      <c r="Y20" s="21"/>
       <c r="Z20" s="5" t="s">
         <v>3</v>
       </c>
@@ -2086,32 +2104,32 @@
         <v>8.7404999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="24" t="s">
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="21" t="s">
+      <c r="C21" s="23"/>
+      <c r="D21" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="G21" s="24" t="s">
+      <c r="E21" s="26"/>
+      <c r="G21" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="21" t="s">
+      <c r="H21" s="23"/>
+      <c r="I21" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="21"/>
+      <c r="J21" s="26"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="S21" s="25"/>
-      <c r="T21" s="21" t="s">
+      <c r="R21" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="S21" s="23"/>
+      <c r="T21" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="U21" s="21"/>
+      <c r="U21" s="26"/>
       <c r="AE21" s="13" t="s">
         <v>59</v>
       </c>
@@ -2149,17 +2167,17 @@
         <v>6.6548999999999997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="24"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="27"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="25"/>
       <c r="I22" s="6" t="s">
         <v>2</v>
       </c>
@@ -2167,22 +2185,22 @@
         <v>3</v>
       </c>
       <c r="Q22" s="7"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="27"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="25"/>
       <c r="T22" s="6" t="s">
         <v>2</v>
       </c>
       <c r="U22" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Y22" s="24" t="s">
+      <c r="Y22" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="21" t="s">
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="AB22" s="21"/>
+      <c r="AB22" s="26"/>
       <c r="AE22" s="18" t="s">
         <v>60</v>
       </c>
@@ -2220,8 +2238,8 @@
         <v>5.0290000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="22" t="s">
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -2233,7 +2251,7 @@
       <c r="E23" s="4">
         <v>106643</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="21" t="s">
         <v>1</v>
       </c>
       <c r="H23" s="5" t="s">
@@ -2246,7 +2264,7 @@
         <v>91104</v>
       </c>
       <c r="Q23" s="7"/>
-      <c r="R23" s="22" t="s">
+      <c r="R23" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S23" s="5" t="s">
@@ -2258,8 +2276,8 @@
       <c r="U23" s="8">
         <v>9553</v>
       </c>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="27"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="25"/>
       <c r="AA23" s="6" t="s">
         <v>2</v>
       </c>
@@ -2303,8 +2321,8 @@
         <v>4.3090999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="22"/>
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="21"/>
       <c r="C24" s="5" t="s">
         <v>3</v>
       </c>
@@ -2314,7 +2332,7 @@
       <c r="E24" s="4">
         <v>16093</v>
       </c>
-      <c r="G24" s="22"/>
+      <c r="G24" s="21"/>
       <c r="H24" s="5" t="s">
         <v>3</v>
       </c>
@@ -2325,7 +2343,7 @@
         <v>16207</v>
       </c>
       <c r="Q24" s="7"/>
-      <c r="R24" s="22"/>
+      <c r="R24" s="21"/>
       <c r="S24" s="5" t="s">
         <v>3</v>
       </c>
@@ -2335,7 +2353,7 @@
       <c r="U24" s="8">
         <v>8018</v>
       </c>
-      <c r="Y24" s="22" t="s">
+      <c r="Y24" s="21" t="s">
         <v>1</v>
       </c>
       <c r="Z24" s="5" t="s">
@@ -2384,8 +2402,8 @@
         <v>4.0017999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Y25" s="22"/>
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y25" s="21"/>
       <c r="Z25" s="5" t="s">
         <v>3</v>
       </c>
@@ -2432,23 +2450,23 @@
         <v>3.8871999999999997E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="24" t="s">
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="21" t="s">
+      <c r="C26" s="23"/>
+      <c r="D26" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="21"/>
-      <c r="G26" s="24" t="s">
+      <c r="E26" s="26"/>
+      <c r="G26" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="21" t="s">
+      <c r="H26" s="23"/>
+      <c r="I26" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J26" s="21"/>
+      <c r="J26" s="26"/>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
@@ -2456,39 +2474,39 @@
       <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="26"/>
-      <c r="C27" s="27"/>
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J27" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="24" t="s">
+      <c r="M27" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="N27" s="25"/>
-      <c r="O27" s="30" t="s">
+      <c r="N27" s="23"/>
+      <c r="O27" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="P27" s="31"/>
-      <c r="R27" s="24" t="s">
+      <c r="P27" s="30"/>
+      <c r="R27" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="S27" s="25"/>
-      <c r="T27" s="30" t="s">
+      <c r="S27" s="23"/>
+      <c r="T27" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="U27" s="31"/>
+      <c r="U27" s="30"/>
       <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
       <c r="AG27" s="3"/>
@@ -2496,8 +2514,8 @@
       <c r="AI27" s="3"/>
       <c r="AJ27" s="3"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="22" t="s">
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -2509,7 +2527,7 @@
       <c r="E28" s="4">
         <v>114306</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="21" t="s">
         <v>1</v>
       </c>
       <c r="H28" s="5" t="s">
@@ -2521,16 +2539,16 @@
       <c r="J28" s="4">
         <v>98714</v>
       </c>
-      <c r="M28" s="26"/>
-      <c r="N28" s="27"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="25"/>
       <c r="O28" s="6" t="s">
         <v>2</v>
       </c>
       <c r="P28" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R28" s="26"/>
-      <c r="S28" s="27"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="25"/>
       <c r="T28" s="6" t="s">
         <v>2</v>
       </c>
@@ -2574,8 +2592,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="22"/>
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="21"/>
       <c r="C29" s="5" t="s">
         <v>3</v>
       </c>
@@ -2585,7 +2603,7 @@
       <c r="E29" s="4">
         <v>16336</v>
       </c>
-      <c r="G29" s="22"/>
+      <c r="G29" s="21"/>
       <c r="H29" s="5" t="s">
         <v>3</v>
       </c>
@@ -2595,7 +2613,7 @@
       <c r="J29" s="4">
         <v>16474</v>
       </c>
-      <c r="M29" s="32" t="s">
+      <c r="M29" s="27" t="s">
         <v>1</v>
       </c>
       <c r="N29" s="5" t="s">
@@ -2607,7 +2625,7 @@
       <c r="P29" s="8">
         <v>68390</v>
       </c>
-      <c r="R29" s="32" t="s">
+      <c r="R29" s="27" t="s">
         <v>1</v>
       </c>
       <c r="S29" s="5" t="s">
@@ -2656,8 +2674,8 @@
         <v>0.143543</v>
       </c>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M30" s="33"/>
+    <row r="30" spans="1:43" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M30" s="28"/>
       <c r="N30" s="5" t="s">
         <v>3</v>
       </c>
@@ -2667,7 +2685,7 @@
       <c r="P30" s="8">
         <v>15655</v>
       </c>
-      <c r="R30" s="33"/>
+      <c r="R30" s="28"/>
       <c r="S30" s="5" t="s">
         <v>3</v>
       </c>
@@ -2714,23 +2732,23 @@
         <v>7.0577000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="24" t="s">
+    <row r="31" spans="1:43" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="21" t="s">
+      <c r="C31" s="23"/>
+      <c r="D31" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="G31" s="24" t="s">
+      <c r="E31" s="26"/>
+      <c r="G31" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="25"/>
-      <c r="I31" s="21" t="s">
+      <c r="H31" s="23"/>
+      <c r="I31" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J31" s="21"/>
+      <c r="J31" s="26"/>
       <c r="AE31" s="13" t="s">
         <v>23</v>
       </c>
@@ -2768,39 +2786,39 @@
         <v>5.1773E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="26"/>
-      <c r="C32" s="27"/>
+    <row r="32" spans="1:43" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="26"/>
-      <c r="H32" s="27"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="25"/>
       <c r="I32" s="6" t="s">
         <v>2</v>
       </c>
       <c r="J32" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="24" t="s">
+      <c r="M32" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="N32" s="25"/>
-      <c r="O32" s="30" t="s">
+      <c r="N32" s="23"/>
+      <c r="O32" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="31"/>
-      <c r="R32" s="24" t="s">
+      <c r="P32" s="30"/>
+      <c r="R32" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="S32" s="25"/>
-      <c r="T32" s="30" t="s">
+      <c r="S32" s="23"/>
+      <c r="T32" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="U32" s="31"/>
+      <c r="U32" s="30"/>
       <c r="AE32" s="18" t="s">
         <v>24</v>
       </c>
@@ -2838,8 +2856,8 @@
         <v>4.4311000000000003E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:56" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="22" t="s">
+    <row r="33" spans="2:56" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -2851,7 +2869,7 @@
       <c r="E33" s="4">
         <v>109029</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G33" s="21" t="s">
         <v>1</v>
       </c>
       <c r="H33" s="5" t="s">
@@ -2863,16 +2881,16 @@
       <c r="J33" s="4">
         <v>96577</v>
       </c>
-      <c r="M33" s="26"/>
-      <c r="N33" s="27"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="25"/>
       <c r="O33" s="6" t="s">
         <v>2</v>
       </c>
       <c r="P33" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R33" s="26"/>
-      <c r="S33" s="27"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="25"/>
       <c r="T33" s="6" t="s">
         <v>2</v>
       </c>
@@ -2916,8 +2934,8 @@
         <v>4.0056000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:56" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="22"/>
+    <row r="34" spans="2:56" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="21"/>
       <c r="C34" s="5" t="s">
         <v>3</v>
       </c>
@@ -2927,7 +2945,7 @@
       <c r="E34" s="4">
         <v>16107</v>
       </c>
-      <c r="G34" s="22"/>
+      <c r="G34" s="21"/>
       <c r="H34" s="5" t="s">
         <v>3</v>
       </c>
@@ -2937,7 +2955,7 @@
       <c r="J34" s="4">
         <v>16205</v>
       </c>
-      <c r="M34" s="32" t="s">
+      <c r="M34" s="27" t="s">
         <v>1</v>
       </c>
       <c r="N34" s="5" t="s">
@@ -2949,7 +2967,7 @@
       <c r="P34" s="8">
         <v>18752</v>
       </c>
-      <c r="R34" s="32" t="s">
+      <c r="R34" s="27" t="s">
         <v>1</v>
       </c>
       <c r="S34" s="5" t="s">
@@ -3019,8 +3037,8 @@
         <v>0.14593200000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:56" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M35" s="33"/>
+    <row r="35" spans="2:56" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M35" s="28"/>
       <c r="N35" s="5" t="s">
         <v>3</v>
       </c>
@@ -3030,7 +3048,7 @@
       <c r="P35" s="8">
         <v>11068</v>
       </c>
-      <c r="R35" s="33"/>
+      <c r="R35" s="28"/>
       <c r="S35" s="5" t="s">
         <v>3</v>
       </c>
@@ -3098,7 +3116,7 @@
         <v>8.7404999999999997E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:56" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:56" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AX36" s="16">
         <v>0</v>
       </c>
@@ -3121,23 +3139,23 @@
         <v>6.6548999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:56" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M37" s="24" t="s">
+    <row r="37" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M37" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="N37" s="25"/>
-      <c r="O37" s="21" t="s">
+      <c r="N37" s="23"/>
+      <c r="O37" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="P37" s="21"/>
-      <c r="R37" s="24" t="s">
+      <c r="P37" s="26"/>
+      <c r="R37" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="S37" s="25"/>
-      <c r="T37" s="21" t="s">
+      <c r="S37" s="23"/>
+      <c r="T37" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="U37" s="21"/>
+      <c r="U37" s="26"/>
       <c r="AX37" s="16">
         <v>0</v>
       </c>
@@ -3160,17 +3178,17 @@
         <v>5.0290000000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:56" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M38" s="26"/>
-      <c r="N38" s="27"/>
+    <row r="38" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M38" s="24"/>
+      <c r="N38" s="25"/>
       <c r="O38" s="6" t="s">
         <v>2</v>
       </c>
       <c r="P38" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R38" s="26"/>
-      <c r="S38" s="27"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="25"/>
       <c r="T38" s="6" t="s">
         <v>2</v>
       </c>
@@ -3235,8 +3253,8 @@
         <v>4.3090999999999997E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:56" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M39" s="22" t="s">
+    <row r="39" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M39" s="21" t="s">
         <v>1</v>
       </c>
       <c r="N39" s="5" t="s">
@@ -3248,7 +3266,7 @@
       <c r="P39" s="8">
         <v>10752</v>
       </c>
-      <c r="R39" s="22" t="s">
+      <c r="R39" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S39" s="5" t="s">
@@ -3318,8 +3336,8 @@
         <v>4.0017999999999998E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:56" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M40" s="22"/>
+    <row r="40" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M40" s="21"/>
       <c r="N40" s="5" t="s">
         <v>3</v>
       </c>
@@ -3329,7 +3347,7 @@
       <c r="P40" s="8">
         <v>8149</v>
       </c>
-      <c r="R40" s="22"/>
+      <c r="R40" s="21"/>
       <c r="S40" s="5" t="s">
         <v>3</v>
       </c>
@@ -3397,7 +3415,7 @@
         <v>3.8871999999999997E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:56" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:56" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE41" s="13" t="s">
         <v>23</v>
       </c>
@@ -3456,15 +3474,15 @@
         <v>0.13536899999999999</v>
       </c>
     </row>
-    <row r="42" spans="2:56" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R42" s="24" t="s">
+    <row r="42" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R42" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="S42" s="25"/>
-      <c r="T42" s="30" t="s">
+      <c r="S42" s="23"/>
+      <c r="T42" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="U42" s="31"/>
+      <c r="U42" s="30"/>
       <c r="AE42" s="18" t="s">
         <v>24</v>
       </c>
@@ -3523,9 +3541,9 @@
         <v>5.0569999999999997E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:56" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R43" s="26"/>
-      <c r="S43" s="27"/>
+    <row r="43" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R43" s="24"/>
+      <c r="S43" s="25"/>
       <c r="T43" s="6" t="s">
         <v>2</v>
       </c>
@@ -3590,8 +3608,8 @@
         <v>4.0826000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:56" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R44" s="32" t="s">
+    <row r="44" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R44" s="27" t="s">
         <v>1</v>
       </c>
       <c r="S44" s="5" t="s">
@@ -3661,8 +3679,8 @@
         <v>3.6537E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:56" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R45" s="33"/>
+    <row r="45" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R45" s="28"/>
       <c r="S45" s="5" t="s">
         <v>3</v>
       </c>
@@ -3730,15 +3748,15 @@
         <v>3.4932999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:56" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="24" t="s">
+    <row r="46" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="21" t="s">
+      <c r="C46" s="23"/>
+      <c r="D46" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="21"/>
+      <c r="E46" s="26"/>
       <c r="AX46" s="16">
         <v>0</v>
       </c>
@@ -3761,9 +3779,9 @@
         <v>3.4153999999999997E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:56" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="26"/>
-      <c r="C47" s="27"/>
+    <row r="47" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="24"/>
+      <c r="C47" s="25"/>
       <c r="D47" s="6" t="s">
         <v>2</v>
       </c>
@@ -3816,8 +3834,8 @@
         <v>3.3508000000000003E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:56" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="22" t="s">
+    <row r="48" spans="2:56" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -3848,8 +3866,8 @@
         <v>3.3928E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:43" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="22"/>
+    <row r="49" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="21"/>
       <c r="C49" s="5" t="s">
         <v>3</v>
       </c>
@@ -3860,23 +3878,23 @@
         <v>8158</v>
       </c>
       <c r="L49" s="3"/>
-      <c r="M49" s="24" t="s">
+      <c r="M49" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="N49" s="25"/>
-      <c r="O49" s="21" t="s">
+      <c r="N49" s="23"/>
+      <c r="O49" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="21"/>
+      <c r="P49" s="26"/>
       <c r="Q49" s="3"/>
-      <c r="R49" s="24" t="s">
+      <c r="R49" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="S49" s="25"/>
-      <c r="T49" s="21" t="s">
+      <c r="S49" s="23"/>
+      <c r="T49" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="U49" s="21"/>
+      <c r="U49" s="26"/>
       <c r="V49" s="3"/>
       <c r="AL49" s="18" t="s">
         <v>68</v>
@@ -3897,10 +3915,10 @@
         <v>3.3791000000000002E-2</v>
       </c>
     </row>
-    <row r="50" spans="2:43" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L50" s="3"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="27"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="25"/>
       <c r="O50" s="6" t="s">
         <v>2</v>
       </c>
@@ -3908,8 +3926,8 @@
         <v>3</v>
       </c>
       <c r="Q50" s="3"/>
-      <c r="R50" s="26"/>
-      <c r="S50" s="27"/>
+      <c r="R50" s="24"/>
+      <c r="S50" s="25"/>
       <c r="T50" s="6" t="s">
         <v>2</v>
       </c>
@@ -3936,17 +3954,17 @@
         <v>3.3799000000000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:43" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="24" t="s">
+    <row r="51" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="21" t="s">
+      <c r="C51" s="23"/>
+      <c r="D51" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="21"/>
+      <c r="E51" s="26"/>
       <c r="L51" s="3"/>
-      <c r="M51" s="22" t="s">
+      <c r="M51" s="21" t="s">
         <v>1</v>
       </c>
       <c r="N51" s="5" t="s">
@@ -3959,7 +3977,7 @@
         <v>76062</v>
       </c>
       <c r="Q51" s="3"/>
-      <c r="R51" s="22" t="s">
+      <c r="R51" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S51" s="5" t="s">
@@ -3973,9 +3991,9 @@
       </c>
       <c r="V51" s="3"/>
     </row>
-    <row r="52" spans="2:43" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="26"/>
-      <c r="C52" s="27"/>
+    <row r="52" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="6" t="s">
         <v>2</v>
       </c>
@@ -3983,7 +4001,7 @@
         <v>3</v>
       </c>
       <c r="L52" s="3"/>
-      <c r="M52" s="22"/>
+      <c r="M52" s="21"/>
       <c r="N52" s="5" t="s">
         <v>3</v>
       </c>
@@ -3994,7 +4012,7 @@
         <v>17305</v>
       </c>
       <c r="Q52" s="3"/>
-      <c r="R52" s="22"/>
+      <c r="R52" s="21"/>
       <c r="S52" s="5" t="s">
         <v>3</v>
       </c>
@@ -4042,8 +4060,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="2:43" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="22" t="s">
+    <row r="53" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -4101,8 +4119,8 @@
         <v>-9.9839999999999998E-3</v>
       </c>
     </row>
-    <row r="54" spans="2:43" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="22"/>
+    <row r="54" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="21"/>
       <c r="C54" s="5" t="s">
         <v>3</v>
       </c>
@@ -4112,23 +4130,23 @@
       <c r="E54" s="4">
         <v>8095</v>
       </c>
-      <c r="M54" s="24" t="s">
+      <c r="M54" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="N54" s="25"/>
-      <c r="O54" s="21" t="s">
+      <c r="N54" s="23"/>
+      <c r="O54" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="P54" s="21"/>
+      <c r="P54" s="26"/>
       <c r="Q54" s="9"/>
-      <c r="R54" s="24" t="s">
+      <c r="R54" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="S54" s="25"/>
-      <c r="T54" s="21" t="s">
+      <c r="S54" s="23"/>
+      <c r="T54" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="U54" s="21"/>
+      <c r="U54" s="26"/>
       <c r="AE54" s="18" t="s">
         <v>49</v>
       </c>
@@ -4166,9 +4184,9 @@
         <v>-9.9349999999999994E-3</v>
       </c>
     </row>
-    <row r="55" spans="2:43" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M55" s="26"/>
-      <c r="N55" s="27"/>
+    <row r="55" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M55" s="24"/>
+      <c r="N55" s="25"/>
       <c r="O55" s="6" t="s">
         <v>2</v>
       </c>
@@ -4176,8 +4194,8 @@
         <v>3</v>
       </c>
       <c r="Q55" s="9"/>
-      <c r="R55" s="26"/>
-      <c r="S55" s="27"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="25"/>
       <c r="T55" s="6" t="s">
         <v>2</v>
       </c>
@@ -4221,16 +4239,16 @@
         <v>-9.946E-3</v>
       </c>
     </row>
-    <row r="56" spans="2:43" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="24" t="s">
+    <row r="56" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="25"/>
-      <c r="D56" s="21" t="s">
+      <c r="C56" s="23"/>
+      <c r="D56" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E56" s="21"/>
-      <c r="M56" s="22" t="s">
+      <c r="E56" s="26"/>
+      <c r="M56" s="21" t="s">
         <v>1</v>
       </c>
       <c r="N56" s="5" t="s">
@@ -4243,7 +4261,7 @@
         <v>33399</v>
       </c>
       <c r="Q56" s="9"/>
-      <c r="R56" s="22" t="s">
+      <c r="R56" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S56" s="5" t="s">
@@ -4274,16 +4292,16 @@
         <v>-1.0404999999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="2:43" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="26"/>
-      <c r="C57" s="27"/>
+    <row r="57" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="24"/>
+      <c r="C57" s="25"/>
       <c r="D57" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="22"/>
+      <c r="M57" s="21"/>
       <c r="N57" s="5" t="s">
         <v>3</v>
       </c>
@@ -4294,7 +4312,7 @@
         <v>14637</v>
       </c>
       <c r="Q57" s="9"/>
-      <c r="R57" s="22"/>
+      <c r="R57" s="21"/>
       <c r="S57" s="5" t="s">
         <v>3</v>
       </c>
@@ -4341,8 +4359,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="2:43" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="22" t="s">
+    <row r="58" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C58" s="5" t="s">
@@ -4400,8 +4418,8 @@
         <v>3.3355000000000003E-2</v>
       </c>
     </row>
-    <row r="59" spans="2:43" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="22"/>
+    <row r="59" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="21"/>
       <c r="C59" s="5" t="s">
         <v>3</v>
       </c>
@@ -4411,23 +4429,23 @@
       <c r="E59" s="4">
         <v>8095</v>
       </c>
-      <c r="M59" s="24" t="s">
+      <c r="M59" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="N59" s="25"/>
-      <c r="O59" s="21" t="s">
+      <c r="N59" s="23"/>
+      <c r="O59" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="P59" s="21"/>
+      <c r="P59" s="26"/>
       <c r="Q59" s="9"/>
-      <c r="R59" s="24" t="s">
+      <c r="R59" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="S59" s="25"/>
-      <c r="T59" s="21" t="s">
+      <c r="S59" s="23"/>
+      <c r="T59" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="U59" s="21"/>
+      <c r="U59" s="26"/>
       <c r="AE59" s="13" t="s">
         <v>53</v>
       </c>
@@ -4465,9 +4483,9 @@
         <v>3.3933999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="2:43" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M60" s="26"/>
-      <c r="N60" s="27"/>
+    <row r="60" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M60" s="24"/>
+      <c r="N60" s="25"/>
       <c r="O60" s="6" t="s">
         <v>2</v>
       </c>
@@ -4475,8 +4493,8 @@
         <v>3</v>
       </c>
       <c r="Q60" s="9"/>
-      <c r="R60" s="26"/>
-      <c r="S60" s="27"/>
+      <c r="R60" s="24"/>
+      <c r="S60" s="25"/>
       <c r="T60" s="6" t="s">
         <v>2</v>
       </c>
@@ -4502,8 +4520,8 @@
         <v>3.3354000000000002E-2</v>
       </c>
     </row>
-    <row r="61" spans="2:43" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M61" s="22" t="s">
+    <row r="61" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M61" s="21" t="s">
         <v>1</v>
       </c>
       <c r="N61" s="5" t="s">
@@ -4516,7 +4534,7 @@
         <v>20945</v>
       </c>
       <c r="Q61" s="9"/>
-      <c r="R61" s="22" t="s">
+      <c r="R61" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S61" s="5" t="s">
@@ -4547,8 +4565,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="2:43" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M62" s="22"/>
+    <row r="62" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M62" s="21"/>
       <c r="N62" s="5" t="s">
         <v>3</v>
       </c>
@@ -4559,7 +4577,7 @@
         <v>12490</v>
       </c>
       <c r="Q62" s="9"/>
-      <c r="R62" s="22"/>
+      <c r="R62" s="21"/>
       <c r="S62" s="5" t="s">
         <v>3</v>
       </c>
@@ -4606,7 +4624,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="2:43" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
       <c r="O63" s="9"/>
@@ -4653,20 +4671,20 @@
         <v>-9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="64" spans="2:43" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:43" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M64" s="15"/>
       <c r="N64" s="15"/>
       <c r="O64" s="15"/>
       <c r="P64" s="15"/>
       <c r="Q64" s="9"/>
-      <c r="R64" s="24" t="s">
+      <c r="R64" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="S64" s="25"/>
-      <c r="T64" s="21" t="s">
+      <c r="S64" s="23"/>
+      <c r="T64" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="U64" s="21"/>
+      <c r="U64" s="26"/>
       <c r="AE64" s="13" t="s">
         <v>59</v>
       </c>
@@ -4704,14 +4722,14 @@
         <v>-9.5949999999999994E-3</v>
       </c>
     </row>
-    <row r="65" spans="13:44" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M65" s="15"/>
       <c r="N65" s="15"/>
       <c r="O65" s="15"/>
       <c r="P65" s="15"/>
       <c r="Q65" s="9"/>
-      <c r="R65" s="26"/>
-      <c r="S65" s="27"/>
+      <c r="R65" s="24"/>
+      <c r="S65" s="25"/>
       <c r="T65" s="6" t="s">
         <v>2</v>
       </c>
@@ -4755,13 +4773,13 @@
         <v>-9.6839999999999999E-3</v>
       </c>
     </row>
-    <row r="66" spans="13:44" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M66" s="15"/>
       <c r="N66" s="15"/>
       <c r="O66" s="15"/>
       <c r="P66" s="15"/>
       <c r="Q66" s="9"/>
-      <c r="R66" s="22" t="s">
+      <c r="R66" s="21" t="s">
         <v>1</v>
       </c>
       <c r="S66" s="5" t="s">
@@ -4792,13 +4810,13 @@
         <v>-8.4600000000000005E-3</v>
       </c>
     </row>
-    <row r="67" spans="13:44" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M67" s="15"/>
       <c r="N67" s="15"/>
       <c r="O67" s="15"/>
       <c r="P67" s="15"/>
       <c r="Q67" s="9"/>
-      <c r="R67" s="22"/>
+      <c r="R67" s="21"/>
       <c r="S67" s="5" t="s">
         <v>3</v>
       </c>
@@ -4827,7 +4845,7 @@
         <v>-9.2530000000000008E-3</v>
       </c>
     </row>
-    <row r="68" spans="13:44" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M68" s="15"/>
       <c r="N68" s="15"/>
       <c r="O68" s="15"/>
@@ -4870,7 +4888,7 @@
       </c>
       <c r="AR68" s="17"/>
     </row>
-    <row r="69" spans="13:44" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M69" s="15"/>
       <c r="N69" s="15"/>
       <c r="O69" s="15"/>
@@ -4894,7 +4912,7 @@
         <v>3.3933999999999999E-2</v>
       </c>
     </row>
-    <row r="70" spans="13:44" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M70" s="15"/>
       <c r="N70" s="15"/>
       <c r="O70" s="15"/>
@@ -4918,9 +4936,9 @@
         <v>3.3354000000000002E-2</v>
       </c>
     </row>
-    <row r="71" spans="13:44" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="13:44" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="13:44" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD73" s="16" t="s">
         <v>57</v>
       </c>
@@ -4940,7 +4958,7 @@
         <v>-5.986E-3</v>
       </c>
     </row>
-    <row r="74" spans="13:44" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD74" s="16" t="s">
         <v>58</v>
       </c>
@@ -4960,7 +4978,7 @@
         <v>-5.7559999999999998E-3</v>
       </c>
     </row>
-    <row r="75" spans="13:44" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD75" s="16" t="s">
         <v>59</v>
       </c>
@@ -4980,7 +4998,7 @@
         <v>-7.803E-3</v>
       </c>
     </row>
-    <row r="76" spans="13:44" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD76" s="16" t="s">
         <v>60</v>
       </c>
@@ -5000,7 +5018,7 @@
         <v>-8.0669999999999995E-3</v>
       </c>
     </row>
-    <row r="77" spans="13:44" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD77" s="16" t="s">
         <v>61</v>
       </c>
@@ -5020,7 +5038,7 @@
         <v>-8.4600000000000005E-3</v>
       </c>
     </row>
-    <row r="78" spans="13:44" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD78" s="16" t="s">
         <v>55</v>
       </c>
@@ -5040,7 +5058,7 @@
         <v>-9.2530000000000008E-3</v>
       </c>
     </row>
-    <row r="79" spans="13:44" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AD79" s="16" t="s">
         <v>56</v>
       </c>
@@ -5060,21 +5078,21 @@
         <v>-9.4640000000000002E-3</v>
       </c>
     </row>
-    <row r="80" spans="13:44" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="13:44" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE80" s="3"/>
       <c r="AF80" s="3"/>
       <c r="AG80" s="3"/>
       <c r="AH80" s="3"/>
       <c r="AI80" s="3"/>
     </row>
-    <row r="81" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE81" s="3"/>
       <c r="AF81" s="3"/>
       <c r="AG81" s="3"/>
       <c r="AH81" s="3"/>
       <c r="AI81" s="3"/>
     </row>
-    <row r="82" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE82" s="3"/>
       <c r="AF82" s="3"/>
       <c r="AG82" s="3"/>
@@ -5082,7 +5100,7 @@
       <c r="AI82" s="3"/>
       <c r="AJ82" s="3"/>
     </row>
-    <row r="83" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE83" s="3"/>
       <c r="AF83" s="3"/>
       <c r="AG83" s="3"/>
@@ -5090,7 +5108,7 @@
       <c r="AI83" s="3"/>
       <c r="AJ83" s="3"/>
     </row>
-    <row r="84" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE84" s="3"/>
       <c r="AF84" s="3"/>
       <c r="AG84" s="3"/>
@@ -5098,7 +5116,7 @@
       <c r="AI84" s="3"/>
       <c r="AJ84" s="3"/>
     </row>
-    <row r="85" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE85" s="3"/>
       <c r="AF85" s="3"/>
       <c r="AG85" s="3"/>
@@ -5106,7 +5124,7 @@
       <c r="AI85" s="3"/>
       <c r="AJ85" s="3"/>
     </row>
-    <row r="86" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE86" s="3"/>
       <c r="AF86" s="3"/>
       <c r="AG86" s="3"/>
@@ -5114,7 +5132,7 @@
       <c r="AI86" s="3"/>
       <c r="AJ86" s="3"/>
     </row>
-    <row r="87" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE87" s="3"/>
       <c r="AF87" s="3"/>
       <c r="AG87" s="3"/>
@@ -5122,7 +5140,7 @@
       <c r="AI87" s="3"/>
       <c r="AJ87" s="3"/>
     </row>
-    <row r="88" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE88" s="3"/>
       <c r="AF88" s="3"/>
       <c r="AG88" s="3"/>
@@ -5130,7 +5148,7 @@
       <c r="AI88" s="3"/>
       <c r="AJ88" s="3"/>
     </row>
-    <row r="89" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE89" s="3"/>
       <c r="AF89" s="3"/>
       <c r="AG89" s="3"/>
@@ -5138,7 +5156,7 @@
       <c r="AI89" s="3"/>
       <c r="AJ89" s="3"/>
     </row>
-    <row r="90" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE90" s="3"/>
       <c r="AF90" s="3"/>
       <c r="AG90" s="3"/>
@@ -5146,7 +5164,7 @@
       <c r="AI90" s="3"/>
       <c r="AJ90" s="3"/>
     </row>
-    <row r="91" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE91" s="3"/>
       <c r="AF91" s="3"/>
       <c r="AG91" s="3"/>
@@ -5154,7 +5172,7 @@
       <c r="AI91" s="3"/>
       <c r="AJ91" s="3"/>
     </row>
-    <row r="92" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE92" s="3"/>
       <c r="AF92" s="3"/>
       <c r="AG92" s="3"/>
@@ -5162,7 +5180,7 @@
       <c r="AI92" s="3"/>
       <c r="AJ92" s="3"/>
     </row>
-    <row r="93" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE93" s="3"/>
       <c r="AF93" s="3"/>
       <c r="AG93" s="3"/>
@@ -5170,7 +5188,7 @@
       <c r="AI93" s="3"/>
       <c r="AJ93" s="3"/>
     </row>
-    <row r="94" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE94" s="3"/>
       <c r="AF94" s="3"/>
       <c r="AG94" s="3"/>
@@ -5178,7 +5196,7 @@
       <c r="AI94" s="3"/>
       <c r="AJ94" s="3"/>
     </row>
-    <row r="95" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE95" s="3"/>
       <c r="AF95" s="3"/>
       <c r="AG95" s="3"/>
@@ -5186,7 +5204,7 @@
       <c r="AI95" s="3"/>
       <c r="AJ95" s="3"/>
     </row>
-    <row r="96" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE96" s="3"/>
       <c r="AF96" s="3"/>
       <c r="AG96" s="3"/>
@@ -5194,7 +5212,7 @@
       <c r="AI96" s="3"/>
       <c r="AJ96" s="3"/>
     </row>
-    <row r="97" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE97" s="3"/>
       <c r="AF97" s="3"/>
       <c r="AG97" s="3"/>
@@ -5202,7 +5220,7 @@
       <c r="AI97" s="3"/>
       <c r="AJ97" s="3"/>
     </row>
-    <row r="98" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE98" s="3"/>
       <c r="AF98" s="3"/>
       <c r="AG98" s="3"/>
@@ -5210,7 +5228,7 @@
       <c r="AI98" s="3"/>
       <c r="AJ98" s="3"/>
     </row>
-    <row r="99" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE99" s="3"/>
       <c r="AF99" s="3"/>
       <c r="AG99" s="3"/>
@@ -5218,7 +5236,7 @@
       <c r="AI99" s="3"/>
       <c r="AJ99" s="3"/>
     </row>
-    <row r="100" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE100" s="3"/>
       <c r="AF100" s="3"/>
       <c r="AG100" s="3"/>
@@ -5226,7 +5244,7 @@
       <c r="AI100" s="3"/>
       <c r="AJ100" s="3"/>
     </row>
-    <row r="101" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE101" s="3"/>
       <c r="AF101" s="3"/>
       <c r="AG101" s="3"/>
@@ -5234,7 +5252,7 @@
       <c r="AI101" s="3"/>
       <c r="AJ101" s="3"/>
     </row>
-    <row r="102" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE102" s="3"/>
       <c r="AF102" s="3"/>
       <c r="AG102" s="3"/>
@@ -5242,7 +5260,7 @@
       <c r="AI102" s="3"/>
       <c r="AJ102" s="3"/>
     </row>
-    <row r="103" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE103" s="3"/>
       <c r="AF103" s="3"/>
       <c r="AG103" s="3"/>
@@ -5250,7 +5268,7 @@
       <c r="AI103" s="3"/>
       <c r="AJ103" s="3"/>
     </row>
-    <row r="104" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE104" s="3"/>
       <c r="AF104" s="3"/>
       <c r="AG104" s="3"/>
@@ -5258,7 +5276,7 @@
       <c r="AI104" s="3"/>
       <c r="AJ104" s="3"/>
     </row>
-    <row r="105" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE105" s="3"/>
       <c r="AF105" s="3"/>
       <c r="AG105" s="3"/>
@@ -5266,7 +5284,7 @@
       <c r="AI105" s="3"/>
       <c r="AJ105" s="3"/>
     </row>
-    <row r="106" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE106" s="3"/>
       <c r="AF106" s="3"/>
       <c r="AG106" s="3"/>
@@ -5274,7 +5292,7 @@
       <c r="AI106" s="3"/>
       <c r="AJ106" s="3"/>
     </row>
-    <row r="107" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE107" s="3"/>
       <c r="AF107" s="3"/>
       <c r="AG107" s="3"/>
@@ -5282,7 +5300,7 @@
       <c r="AI107" s="3"/>
       <c r="AJ107" s="3"/>
     </row>
-    <row r="108" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE108" s="3"/>
       <c r="AF108" s="3"/>
       <c r="AG108" s="3"/>
@@ -5290,7 +5308,7 @@
       <c r="AI108" s="3"/>
       <c r="AJ108" s="3"/>
     </row>
-    <row r="109" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE109" s="3"/>
       <c r="AF109" s="3"/>
       <c r="AG109" s="3"/>
@@ -5298,7 +5316,7 @@
       <c r="AI109" s="3"/>
       <c r="AJ109" s="3"/>
     </row>
-    <row r="110" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE110" s="3"/>
       <c r="AF110" s="3"/>
       <c r="AG110" s="3"/>
@@ -5306,7 +5324,7 @@
       <c r="AI110" s="3"/>
       <c r="AJ110" s="3"/>
     </row>
-    <row r="111" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE111" s="3"/>
       <c r="AF111" s="3"/>
       <c r="AG111" s="3"/>
@@ -5314,7 +5332,7 @@
       <c r="AI111" s="3"/>
       <c r="AJ111" s="3"/>
     </row>
-    <row r="112" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE112" s="3"/>
       <c r="AF112" s="3"/>
       <c r="AG112" s="3"/>
@@ -5322,7 +5340,7 @@
       <c r="AI112" s="3"/>
       <c r="AJ112" s="3"/>
     </row>
-    <row r="113" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE113" s="3"/>
       <c r="AF113" s="3"/>
       <c r="AG113" s="3"/>
@@ -5330,7 +5348,7 @@
       <c r="AI113" s="3"/>
       <c r="AJ113" s="3"/>
     </row>
-    <row r="114" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE114" s="3"/>
       <c r="AF114" s="3"/>
       <c r="AG114" s="3"/>
@@ -5338,7 +5356,7 @@
       <c r="AI114" s="3"/>
       <c r="AJ114" s="3"/>
     </row>
-    <row r="115" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE115" s="3"/>
       <c r="AF115" s="3"/>
       <c r="AG115" s="3"/>
@@ -5346,7 +5364,7 @@
       <c r="AI115" s="3"/>
       <c r="AJ115" s="3"/>
     </row>
-    <row r="116" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE116" s="3"/>
       <c r="AF116" s="3"/>
       <c r="AG116" s="3"/>
@@ -5354,7 +5372,7 @@
       <c r="AI116" s="3"/>
       <c r="AJ116" s="3"/>
     </row>
-    <row r="117" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE117" s="3"/>
       <c r="AF117" s="3"/>
       <c r="AG117" s="3"/>
@@ -5362,7 +5380,7 @@
       <c r="AI117" s="3"/>
       <c r="AJ117" s="3"/>
     </row>
-    <row r="118" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE118" s="3"/>
       <c r="AF118" s="3"/>
       <c r="AG118" s="3"/>
@@ -5370,7 +5388,7 @@
       <c r="AI118" s="3"/>
       <c r="AJ118" s="3"/>
     </row>
-    <row r="119" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE119" s="3"/>
       <c r="AF119" s="3"/>
       <c r="AG119" s="3"/>
@@ -5378,7 +5396,7 @@
       <c r="AI119" s="3"/>
       <c r="AJ119" s="3"/>
     </row>
-    <row r="120" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE120" s="3"/>
       <c r="AF120" s="3"/>
       <c r="AG120" s="3"/>
@@ -5386,7 +5404,7 @@
       <c r="AI120" s="3"/>
       <c r="AJ120" s="3"/>
     </row>
-    <row r="121" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE121" s="3"/>
       <c r="AF121" s="3"/>
       <c r="AG121" s="3"/>
@@ -5394,7 +5412,7 @@
       <c r="AI121" s="3"/>
       <c r="AJ121" s="3"/>
     </row>
-    <row r="122" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE122" s="3"/>
       <c r="AF122" s="3"/>
       <c r="AG122" s="3"/>
@@ -5402,7 +5420,7 @@
       <c r="AI122" s="3"/>
       <c r="AJ122" s="3"/>
     </row>
-    <row r="123" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE123" s="3"/>
       <c r="AF123" s="3"/>
       <c r="AG123" s="3"/>
@@ -5410,7 +5428,7 @@
       <c r="AI123" s="3"/>
       <c r="AJ123" s="3"/>
     </row>
-    <row r="124" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE124" s="3"/>
       <c r="AF124" s="3"/>
       <c r="AG124" s="3"/>
@@ -5418,7 +5436,7 @@
       <c r="AI124" s="3"/>
       <c r="AJ124" s="3"/>
     </row>
-    <row r="125" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE125" s="3"/>
       <c r="AF125" s="3"/>
       <c r="AG125" s="3"/>
@@ -5426,7 +5444,7 @@
       <c r="AI125" s="3"/>
       <c r="AJ125" s="3"/>
     </row>
-    <row r="126" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE126" s="3"/>
       <c r="AF126" s="3"/>
       <c r="AG126" s="3"/>
@@ -5434,7 +5452,7 @@
       <c r="AI126" s="3"/>
       <c r="AJ126" s="3"/>
     </row>
-    <row r="127" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE127" s="3"/>
       <c r="AF127" s="3"/>
       <c r="AG127" s="3"/>
@@ -5442,7 +5460,7 @@
       <c r="AI127" s="3"/>
       <c r="AJ127" s="3"/>
     </row>
-    <row r="128" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE128" s="3"/>
       <c r="AF128" s="3"/>
       <c r="AG128" s="3"/>
@@ -5450,7 +5468,7 @@
       <c r="AI128" s="3"/>
       <c r="AJ128" s="3"/>
     </row>
-    <row r="129" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE129" s="3"/>
       <c r="AF129" s="3"/>
       <c r="AG129" s="3"/>
@@ -5458,7 +5476,7 @@
       <c r="AI129" s="3"/>
       <c r="AJ129" s="3"/>
     </row>
-    <row r="130" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE130" s="3"/>
       <c r="AF130" s="3"/>
       <c r="AG130" s="3"/>
@@ -5466,7 +5484,7 @@
       <c r="AI130" s="3"/>
       <c r="AJ130" s="3"/>
     </row>
-    <row r="131" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE131" s="3"/>
       <c r="AF131" s="3"/>
       <c r="AG131" s="3"/>
@@ -5474,7 +5492,7 @@
       <c r="AI131" s="3"/>
       <c r="AJ131" s="3"/>
     </row>
-    <row r="132" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE132" s="3"/>
       <c r="AF132" s="3"/>
       <c r="AG132" s="3"/>
@@ -5482,7 +5500,7 @@
       <c r="AI132" s="3"/>
       <c r="AJ132" s="3"/>
     </row>
-    <row r="133" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE133" s="3"/>
       <c r="AF133" s="3"/>
       <c r="AG133" s="3"/>
@@ -5490,7 +5508,7 @@
       <c r="AI133" s="3"/>
       <c r="AJ133" s="3"/>
     </row>
-    <row r="134" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE134" s="3"/>
       <c r="AF134" s="3"/>
       <c r="AG134" s="3"/>
@@ -5498,7 +5516,7 @@
       <c r="AI134" s="3"/>
       <c r="AJ134" s="3"/>
     </row>
-    <row r="135" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE135" s="3"/>
       <c r="AF135" s="3"/>
       <c r="AG135" s="3"/>
@@ -5506,7 +5524,7 @@
       <c r="AI135" s="3"/>
       <c r="AJ135" s="3"/>
     </row>
-    <row r="136" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE136" s="3"/>
       <c r="AF136" s="3"/>
       <c r="AG136" s="3"/>
@@ -5514,7 +5532,7 @@
       <c r="AI136" s="3"/>
       <c r="AJ136" s="3"/>
     </row>
-    <row r="137" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE137" s="3"/>
       <c r="AF137" s="3"/>
       <c r="AG137" s="3"/>
@@ -5522,7 +5540,7 @@
       <c r="AI137" s="3"/>
       <c r="AJ137" s="3"/>
     </row>
-    <row r="138" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE138" s="3"/>
       <c r="AF138" s="3"/>
       <c r="AG138" s="3"/>
@@ -5530,7 +5548,7 @@
       <c r="AI138" s="3"/>
       <c r="AJ138" s="3"/>
     </row>
-    <row r="139" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE139" s="3"/>
       <c r="AF139" s="3"/>
       <c r="AG139" s="3"/>
@@ -5538,7 +5556,7 @@
       <c r="AI139" s="3"/>
       <c r="AJ139" s="3"/>
     </row>
-    <row r="140" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE140" s="3"/>
       <c r="AF140" s="3"/>
       <c r="AG140" s="3"/>
@@ -5546,7 +5564,7 @@
       <c r="AI140" s="3"/>
       <c r="AJ140" s="3"/>
     </row>
-    <row r="141" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE141" s="3"/>
       <c r="AF141" s="3"/>
       <c r="AG141" s="3"/>
@@ -5554,7 +5572,7 @@
       <c r="AI141" s="3"/>
       <c r="AJ141" s="3"/>
     </row>
-    <row r="142" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE142" s="3"/>
       <c r="AF142" s="3"/>
       <c r="AG142" s="3"/>
@@ -5562,7 +5580,7 @@
       <c r="AI142" s="3"/>
       <c r="AJ142" s="3"/>
     </row>
-    <row r="143" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE143" s="3"/>
       <c r="AF143" s="3"/>
       <c r="AG143" s="3"/>
@@ -5570,7 +5588,7 @@
       <c r="AI143" s="3"/>
       <c r="AJ143" s="3"/>
     </row>
-    <row r="144" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE144" s="3"/>
       <c r="AF144" s="3"/>
       <c r="AG144" s="3"/>
@@ -5578,7 +5596,7 @@
       <c r="AI144" s="3"/>
       <c r="AJ144" s="3"/>
     </row>
-    <row r="145" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE145" s="3"/>
       <c r="AF145" s="3"/>
       <c r="AG145" s="3"/>
@@ -5586,7 +5604,7 @@
       <c r="AI145" s="3"/>
       <c r="AJ145" s="3"/>
     </row>
-    <row r="146" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE146" s="3"/>
       <c r="AF146" s="3"/>
       <c r="AG146" s="3"/>
@@ -5594,7 +5612,7 @@
       <c r="AI146" s="3"/>
       <c r="AJ146" s="3"/>
     </row>
-    <row r="147" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE147" s="3"/>
       <c r="AF147" s="3"/>
       <c r="AG147" s="3"/>
@@ -5602,7 +5620,7 @@
       <c r="AI147" s="3"/>
       <c r="AJ147" s="3"/>
     </row>
-    <row r="148" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE148" s="3"/>
       <c r="AF148" s="3"/>
       <c r="AG148" s="3"/>
@@ -5610,7 +5628,7 @@
       <c r="AI148" s="3"/>
       <c r="AJ148" s="3"/>
     </row>
-    <row r="149" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE149" s="3"/>
       <c r="AF149" s="3"/>
       <c r="AG149" s="3"/>
@@ -5618,7 +5636,7 @@
       <c r="AI149" s="3"/>
       <c r="AJ149" s="3"/>
     </row>
-    <row r="150" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE150" s="3"/>
       <c r="AF150" s="3"/>
       <c r="AG150" s="3"/>
@@ -5626,7 +5644,7 @@
       <c r="AI150" s="3"/>
       <c r="AJ150" s="3"/>
     </row>
-    <row r="151" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE151" s="3"/>
       <c r="AF151" s="3"/>
       <c r="AG151" s="3"/>
@@ -5634,7 +5652,7 @@
       <c r="AI151" s="3"/>
       <c r="AJ151" s="3"/>
     </row>
-    <row r="152" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE152" s="3"/>
       <c r="AF152" s="3"/>
       <c r="AG152" s="3"/>
@@ -5642,7 +5660,7 @@
       <c r="AI152" s="3"/>
       <c r="AJ152" s="3"/>
     </row>
-    <row r="153" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE153" s="3"/>
       <c r="AF153" s="3"/>
       <c r="AG153" s="3"/>
@@ -5650,7 +5668,7 @@
       <c r="AI153" s="3"/>
       <c r="AJ153" s="3"/>
     </row>
-    <row r="154" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE154" s="3"/>
       <c r="AF154" s="3"/>
       <c r="AG154" s="3"/>
@@ -5658,7 +5676,7 @@
       <c r="AI154" s="3"/>
       <c r="AJ154" s="3"/>
     </row>
-    <row r="155" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE155" s="3"/>
       <c r="AF155" s="3"/>
       <c r="AG155" s="3"/>
@@ -5666,7 +5684,7 @@
       <c r="AI155" s="3"/>
       <c r="AJ155" s="3"/>
     </row>
-    <row r="156" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE156" s="3"/>
       <c r="AF156" s="3"/>
       <c r="AG156" s="3"/>
@@ -5674,7 +5692,7 @@
       <c r="AI156" s="3"/>
       <c r="AJ156" s="3"/>
     </row>
-    <row r="157" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE157" s="3"/>
       <c r="AF157" s="3"/>
       <c r="AG157" s="3"/>
@@ -5682,7 +5700,7 @@
       <c r="AI157" s="3"/>
       <c r="AJ157" s="3"/>
     </row>
-    <row r="158" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE158" s="3"/>
       <c r="AF158" s="3"/>
       <c r="AG158" s="3"/>
@@ -5690,7 +5708,7 @@
       <c r="AI158" s="3"/>
       <c r="AJ158" s="3"/>
     </row>
-    <row r="159" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE159" s="3"/>
       <c r="AF159" s="3"/>
       <c r="AG159" s="3"/>
@@ -5698,7 +5716,7 @@
       <c r="AI159" s="3"/>
       <c r="AJ159" s="3"/>
     </row>
-    <row r="160" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE160" s="3"/>
       <c r="AF160" s="3"/>
       <c r="AG160" s="3"/>
@@ -5706,7 +5724,7 @@
       <c r="AI160" s="3"/>
       <c r="AJ160" s="3"/>
     </row>
-    <row r="161" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE161" s="3"/>
       <c r="AF161" s="3"/>
       <c r="AG161" s="3"/>
@@ -5714,7 +5732,7 @@
       <c r="AI161" s="3"/>
       <c r="AJ161" s="3"/>
     </row>
-    <row r="162" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE162" s="3"/>
       <c r="AF162" s="3"/>
       <c r="AG162" s="3"/>
@@ -5722,7 +5740,7 @@
       <c r="AI162" s="3"/>
       <c r="AJ162" s="3"/>
     </row>
-    <row r="163" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE163" s="3"/>
       <c r="AF163" s="3"/>
       <c r="AG163" s="3"/>
@@ -5730,7 +5748,7 @@
       <c r="AI163" s="3"/>
       <c r="AJ163" s="3"/>
     </row>
-    <row r="164" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE164" s="3"/>
       <c r="AF164" s="3"/>
       <c r="AG164" s="3"/>
@@ -5738,7 +5756,7 @@
       <c r="AI164" s="3"/>
       <c r="AJ164" s="3"/>
     </row>
-    <row r="165" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE165" s="3"/>
       <c r="AF165" s="3"/>
       <c r="AG165" s="3"/>
@@ -5746,7 +5764,7 @@
       <c r="AI165" s="3"/>
       <c r="AJ165" s="3"/>
     </row>
-    <row r="166" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE166" s="3"/>
       <c r="AF166" s="3"/>
       <c r="AG166" s="3"/>
@@ -5754,7 +5772,7 @@
       <c r="AI166" s="3"/>
       <c r="AJ166" s="3"/>
     </row>
-    <row r="167" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE167" s="3"/>
       <c r="AF167" s="3"/>
       <c r="AG167" s="3"/>
@@ -5762,7 +5780,7 @@
       <c r="AI167" s="3"/>
       <c r="AJ167" s="3"/>
     </row>
-    <row r="168" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE168" s="3"/>
       <c r="AF168" s="3"/>
       <c r="AG168" s="3"/>
@@ -5770,7 +5788,7 @@
       <c r="AI168" s="3"/>
       <c r="AJ168" s="3"/>
     </row>
-    <row r="169" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE169" s="3"/>
       <c r="AF169" s="3"/>
       <c r="AG169" s="3"/>
@@ -5778,7 +5796,7 @@
       <c r="AI169" s="3"/>
       <c r="AJ169" s="3"/>
     </row>
-    <row r="170" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE170" s="3"/>
       <c r="AF170" s="3"/>
       <c r="AG170" s="3"/>
@@ -5786,7 +5804,7 @@
       <c r="AI170" s="3"/>
       <c r="AJ170" s="3"/>
     </row>
-    <row r="171" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE171" s="3"/>
       <c r="AF171" s="3"/>
       <c r="AG171" s="3"/>
@@ -5794,7 +5812,7 @@
       <c r="AI171" s="3"/>
       <c r="AJ171" s="3"/>
     </row>
-    <row r="172" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE172" s="3"/>
       <c r="AF172" s="3"/>
       <c r="AG172" s="3"/>
@@ -5802,7 +5820,7 @@
       <c r="AI172" s="3"/>
       <c r="AJ172" s="3"/>
     </row>
-    <row r="173" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE173" s="3"/>
       <c r="AF173" s="3"/>
       <c r="AG173" s="3"/>
@@ -5810,7 +5828,7 @@
       <c r="AI173" s="3"/>
       <c r="AJ173" s="3"/>
     </row>
-    <row r="174" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE174" s="3"/>
       <c r="AF174" s="3"/>
       <c r="AG174" s="3"/>
@@ -5818,7 +5836,7 @@
       <c r="AI174" s="3"/>
       <c r="AJ174" s="3"/>
     </row>
-    <row r="175" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE175" s="3"/>
       <c r="AF175" s="3"/>
       <c r="AG175" s="3"/>
@@ -5826,7 +5844,7 @@
       <c r="AI175" s="3"/>
       <c r="AJ175" s="3"/>
     </row>
-    <row r="176" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE176" s="3"/>
       <c r="AF176" s="3"/>
       <c r="AG176" s="3"/>
@@ -5834,7 +5852,7 @@
       <c r="AI176" s="3"/>
       <c r="AJ176" s="3"/>
     </row>
-    <row r="177" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE177" s="3"/>
       <c r="AF177" s="3"/>
       <c r="AG177" s="3"/>
@@ -5842,7 +5860,7 @@
       <c r="AI177" s="3"/>
       <c r="AJ177" s="3"/>
     </row>
-    <row r="178" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE178" s="3"/>
       <c r="AF178" s="3"/>
       <c r="AG178" s="3"/>
@@ -5850,7 +5868,7 @@
       <c r="AI178" s="3"/>
       <c r="AJ178" s="3"/>
     </row>
-    <row r="179" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE179" s="3"/>
       <c r="AF179" s="3"/>
       <c r="AG179" s="3"/>
@@ -5858,7 +5876,7 @@
       <c r="AI179" s="3"/>
       <c r="AJ179" s="3"/>
     </row>
-    <row r="180" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE180" s="3"/>
       <c r="AF180" s="3"/>
       <c r="AG180" s="3"/>
@@ -5866,7 +5884,7 @@
       <c r="AI180" s="3"/>
       <c r="AJ180" s="3"/>
     </row>
-    <row r="181" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE181" s="3"/>
       <c r="AF181" s="3"/>
       <c r="AG181" s="3"/>
@@ -5874,7 +5892,7 @@
       <c r="AI181" s="3"/>
       <c r="AJ181" s="3"/>
     </row>
-    <row r="182" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE182" s="3"/>
       <c r="AF182" s="3"/>
       <c r="AG182" s="3"/>
@@ -5882,7 +5900,7 @@
       <c r="AI182" s="3"/>
       <c r="AJ182" s="3"/>
     </row>
-    <row r="183" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE183" s="3"/>
       <c r="AF183" s="3"/>
       <c r="AG183" s="3"/>
@@ -5890,7 +5908,7 @@
       <c r="AI183" s="3"/>
       <c r="AJ183" s="3"/>
     </row>
-    <row r="184" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE184" s="3"/>
       <c r="AF184" s="3"/>
       <c r="AG184" s="3"/>
@@ -5898,7 +5916,7 @@
       <c r="AI184" s="3"/>
       <c r="AJ184" s="3"/>
     </row>
-    <row r="185" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE185" s="3"/>
       <c r="AF185" s="3"/>
       <c r="AG185" s="3"/>
@@ -5906,7 +5924,7 @@
       <c r="AI185" s="3"/>
       <c r="AJ185" s="3"/>
     </row>
-    <row r="186" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE186" s="3"/>
       <c r="AF186" s="3"/>
       <c r="AG186" s="3"/>
@@ -5914,7 +5932,7 @@
       <c r="AI186" s="3"/>
       <c r="AJ186" s="3"/>
     </row>
-    <row r="187" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE187" s="3"/>
       <c r="AF187" s="3"/>
       <c r="AG187" s="3"/>
@@ -5922,7 +5940,7 @@
       <c r="AI187" s="3"/>
       <c r="AJ187" s="3"/>
     </row>
-    <row r="188" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE188" s="3"/>
       <c r="AF188" s="3"/>
       <c r="AG188" s="3"/>
@@ -5930,7 +5948,7 @@
       <c r="AI188" s="3"/>
       <c r="AJ188" s="3"/>
     </row>
-    <row r="189" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE189" s="3"/>
       <c r="AF189" s="3"/>
       <c r="AG189" s="3"/>
@@ -5938,7 +5956,7 @@
       <c r="AI189" s="3"/>
       <c r="AJ189" s="3"/>
     </row>
-    <row r="190" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE190" s="3"/>
       <c r="AF190" s="3"/>
       <c r="AG190" s="3"/>
@@ -5946,7 +5964,7 @@
       <c r="AI190" s="3"/>
       <c r="AJ190" s="3"/>
     </row>
-    <row r="191" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE191" s="3"/>
       <c r="AF191" s="3"/>
       <c r="AG191" s="3"/>
@@ -5954,7 +5972,7 @@
       <c r="AI191" s="3"/>
       <c r="AJ191" s="3"/>
     </row>
-    <row r="192" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE192" s="3"/>
       <c r="AF192" s="3"/>
       <c r="AG192" s="3"/>
@@ -5962,7 +5980,7 @@
       <c r="AI192" s="3"/>
       <c r="AJ192" s="3"/>
     </row>
-    <row r="193" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE193" s="3"/>
       <c r="AF193" s="3"/>
       <c r="AG193" s="3"/>
@@ -5970,7 +5988,7 @@
       <c r="AI193" s="3"/>
       <c r="AJ193" s="3"/>
     </row>
-    <row r="194" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE194" s="3"/>
       <c r="AF194" s="3"/>
       <c r="AG194" s="3"/>
@@ -5978,7 +5996,7 @@
       <c r="AI194" s="3"/>
       <c r="AJ194" s="3"/>
     </row>
-    <row r="195" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE195" s="3"/>
       <c r="AF195" s="3"/>
       <c r="AG195" s="3"/>
@@ -5986,7 +6004,7 @@
       <c r="AI195" s="3"/>
       <c r="AJ195" s="3"/>
     </row>
-    <row r="196" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE196" s="3"/>
       <c r="AF196" s="3"/>
       <c r="AG196" s="3"/>
@@ -5994,7 +6012,7 @@
       <c r="AI196" s="3"/>
       <c r="AJ196" s="3"/>
     </row>
-    <row r="197" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE197" s="3"/>
       <c r="AF197" s="3"/>
       <c r="AG197" s="3"/>
@@ -6002,7 +6020,7 @@
       <c r="AI197" s="3"/>
       <c r="AJ197" s="3"/>
     </row>
-    <row r="198" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE198" s="3"/>
       <c r="AF198" s="3"/>
       <c r="AG198" s="3"/>
@@ -6010,7 +6028,7 @@
       <c r="AI198" s="3"/>
       <c r="AJ198" s="3"/>
     </row>
-    <row r="199" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE199" s="3"/>
       <c r="AF199" s="3"/>
       <c r="AG199" s="3"/>
@@ -6018,7 +6036,7 @@
       <c r="AI199" s="3"/>
       <c r="AJ199" s="3"/>
     </row>
-    <row r="200" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE200" s="3"/>
       <c r="AF200" s="3"/>
       <c r="AG200" s="3"/>
@@ -6026,7 +6044,7 @@
       <c r="AI200" s="3"/>
       <c r="AJ200" s="3"/>
     </row>
-    <row r="201" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE201" s="3"/>
       <c r="AF201" s="3"/>
       <c r="AG201" s="3"/>
@@ -6034,7 +6052,7 @@
       <c r="AI201" s="3"/>
       <c r="AJ201" s="3"/>
     </row>
-    <row r="202" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE202" s="3"/>
       <c r="AF202" s="3"/>
       <c r="AG202" s="3"/>
@@ -6042,7 +6060,7 @@
       <c r="AI202" s="3"/>
       <c r="AJ202" s="3"/>
     </row>
-    <row r="203" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE203" s="3"/>
       <c r="AF203" s="3"/>
       <c r="AG203" s="3"/>
@@ -6050,7 +6068,7 @@
       <c r="AI203" s="3"/>
       <c r="AJ203" s="3"/>
     </row>
-    <row r="204" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE204" s="3"/>
       <c r="AF204" s="3"/>
       <c r="AG204" s="3"/>
@@ -6058,7 +6076,7 @@
       <c r="AI204" s="3"/>
       <c r="AJ204" s="3"/>
     </row>
-    <row r="205" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE205" s="3"/>
       <c r="AF205" s="3"/>
       <c r="AG205" s="3"/>
@@ -6066,7 +6084,7 @@
       <c r="AI205" s="3"/>
       <c r="AJ205" s="3"/>
     </row>
-    <row r="206" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE206" s="3"/>
       <c r="AF206" s="3"/>
       <c r="AG206" s="3"/>
@@ -6074,7 +6092,7 @@
       <c r="AI206" s="3"/>
       <c r="AJ206" s="3"/>
     </row>
-    <row r="207" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE207" s="3"/>
       <c r="AF207" s="3"/>
       <c r="AG207" s="3"/>
@@ -6082,7 +6100,7 @@
       <c r="AI207" s="3"/>
       <c r="AJ207" s="3"/>
     </row>
-    <row r="208" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE208" s="3"/>
       <c r="AF208" s="3"/>
       <c r="AG208" s="3"/>
@@ -6090,7 +6108,7 @@
       <c r="AI208" s="3"/>
       <c r="AJ208" s="3"/>
     </row>
-    <row r="209" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE209" s="3"/>
       <c r="AF209" s="3"/>
       <c r="AG209" s="3"/>
@@ -6098,7 +6116,7 @@
       <c r="AI209" s="3"/>
       <c r="AJ209" s="3"/>
     </row>
-    <row r="210" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE210" s="3"/>
       <c r="AF210" s="3"/>
       <c r="AG210" s="3"/>
@@ -6106,7 +6124,7 @@
       <c r="AI210" s="3"/>
       <c r="AJ210" s="3"/>
     </row>
-    <row r="211" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE211" s="3"/>
       <c r="AF211" s="3"/>
       <c r="AG211" s="3"/>
@@ -6114,7 +6132,7 @@
       <c r="AI211" s="3"/>
       <c r="AJ211" s="3"/>
     </row>
-    <row r="212" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE212" s="3"/>
       <c r="AF212" s="3"/>
       <c r="AG212" s="3"/>
@@ -6122,7 +6140,7 @@
       <c r="AI212" s="3"/>
       <c r="AJ212" s="3"/>
     </row>
-    <row r="213" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE213" s="3"/>
       <c r="AF213" s="3"/>
       <c r="AG213" s="3"/>
@@ -6130,7 +6148,7 @@
       <c r="AI213" s="3"/>
       <c r="AJ213" s="3"/>
     </row>
-    <row r="214" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE214" s="3"/>
       <c r="AF214" s="3"/>
       <c r="AG214" s="3"/>
@@ -6138,7 +6156,7 @@
       <c r="AI214" s="3"/>
       <c r="AJ214" s="3"/>
     </row>
-    <row r="215" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE215" s="3"/>
       <c r="AF215" s="3"/>
       <c r="AG215" s="3"/>
@@ -6146,7 +6164,7 @@
       <c r="AI215" s="3"/>
       <c r="AJ215" s="3"/>
     </row>
-    <row r="216" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE216" s="3"/>
       <c r="AF216" s="3"/>
       <c r="AG216" s="3"/>
@@ -6154,7 +6172,7 @@
       <c r="AI216" s="3"/>
       <c r="AJ216" s="3"/>
     </row>
-    <row r="217" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE217" s="3"/>
       <c r="AF217" s="3"/>
       <c r="AG217" s="3"/>
@@ -6162,7 +6180,7 @@
       <c r="AI217" s="3"/>
       <c r="AJ217" s="3"/>
     </row>
-    <row r="218" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE218" s="3"/>
       <c r="AF218" s="3"/>
       <c r="AG218" s="3"/>
@@ -6170,7 +6188,7 @@
       <c r="AI218" s="3"/>
       <c r="AJ218" s="3"/>
     </row>
-    <row r="219" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE219" s="3"/>
       <c r="AF219" s="3"/>
       <c r="AG219" s="3"/>
@@ -6178,7 +6196,7 @@
       <c r="AI219" s="3"/>
       <c r="AJ219" s="3"/>
     </row>
-    <row r="220" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE220" s="3"/>
       <c r="AF220" s="3"/>
       <c r="AG220" s="3"/>
@@ -6186,7 +6204,7 @@
       <c r="AI220" s="3"/>
       <c r="AJ220" s="3"/>
     </row>
-    <row r="221" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE221" s="3"/>
       <c r="AF221" s="3"/>
       <c r="AG221" s="3"/>
@@ -6194,7 +6212,7 @@
       <c r="AI221" s="3"/>
       <c r="AJ221" s="3"/>
     </row>
-    <row r="222" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE222" s="3"/>
       <c r="AF222" s="3"/>
       <c r="AG222" s="3"/>
@@ -6202,7 +6220,7 @@
       <c r="AI222" s="3"/>
       <c r="AJ222" s="3"/>
     </row>
-    <row r="223" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE223" s="3"/>
       <c r="AF223" s="3"/>
       <c r="AG223" s="3"/>
@@ -6210,7 +6228,7 @@
       <c r="AI223" s="3"/>
       <c r="AJ223" s="3"/>
     </row>
-    <row r="224" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE224" s="3"/>
       <c r="AF224" s="3"/>
       <c r="AG224" s="3"/>
@@ -6218,7 +6236,7 @@
       <c r="AI224" s="3"/>
       <c r="AJ224" s="3"/>
     </row>
-    <row r="225" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE225" s="3"/>
       <c r="AF225" s="3"/>
       <c r="AG225" s="3"/>
@@ -6226,7 +6244,7 @@
       <c r="AI225" s="3"/>
       <c r="AJ225" s="3"/>
     </row>
-    <row r="226" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE226" s="3"/>
       <c r="AF226" s="3"/>
       <c r="AG226" s="3"/>
@@ -6234,7 +6252,7 @@
       <c r="AI226" s="3"/>
       <c r="AJ226" s="3"/>
     </row>
-    <row r="227" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE227" s="3"/>
       <c r="AF227" s="3"/>
       <c r="AG227" s="3"/>
@@ -6242,7 +6260,7 @@
       <c r="AI227" s="3"/>
       <c r="AJ227" s="3"/>
     </row>
-    <row r="228" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE228" s="3"/>
       <c r="AF228" s="3"/>
       <c r="AG228" s="3"/>
@@ -6250,7 +6268,7 @@
       <c r="AI228" s="3"/>
       <c r="AJ228" s="3"/>
     </row>
-    <row r="229" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE229" s="3"/>
       <c r="AF229" s="3"/>
       <c r="AG229" s="3"/>
@@ -6258,7 +6276,7 @@
       <c r="AI229" s="3"/>
       <c r="AJ229" s="3"/>
     </row>
-    <row r="230" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE230" s="3"/>
       <c r="AF230" s="3"/>
       <c r="AG230" s="3"/>
@@ -6266,7 +6284,7 @@
       <c r="AI230" s="3"/>
       <c r="AJ230" s="3"/>
     </row>
-    <row r="231" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE231" s="3"/>
       <c r="AF231" s="3"/>
       <c r="AG231" s="3"/>
@@ -6274,7 +6292,7 @@
       <c r="AI231" s="3"/>
       <c r="AJ231" s="3"/>
     </row>
-    <row r="232" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE232" s="3"/>
       <c r="AF232" s="3"/>
       <c r="AG232" s="3"/>
@@ -6282,7 +6300,7 @@
       <c r="AI232" s="3"/>
       <c r="AJ232" s="3"/>
     </row>
-    <row r="233" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE233" s="3"/>
       <c r="AF233" s="3"/>
       <c r="AG233" s="3"/>
@@ -6290,7 +6308,7 @@
       <c r="AI233" s="3"/>
       <c r="AJ233" s="3"/>
     </row>
-    <row r="234" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE234" s="3"/>
       <c r="AF234" s="3"/>
       <c r="AG234" s="3"/>
@@ -6298,7 +6316,7 @@
       <c r="AI234" s="3"/>
       <c r="AJ234" s="3"/>
     </row>
-    <row r="235" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE235" s="3"/>
       <c r="AF235" s="3"/>
       <c r="AG235" s="3"/>
@@ -6306,7 +6324,7 @@
       <c r="AI235" s="3"/>
       <c r="AJ235" s="3"/>
     </row>
-    <row r="236" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE236" s="3"/>
       <c r="AF236" s="3"/>
       <c r="AG236" s="3"/>
@@ -6314,7 +6332,7 @@
       <c r="AI236" s="3"/>
       <c r="AJ236" s="3"/>
     </row>
-    <row r="237" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE237" s="3"/>
       <c r="AF237" s="3"/>
       <c r="AG237" s="3"/>
@@ -6322,7 +6340,7 @@
       <c r="AI237" s="3"/>
       <c r="AJ237" s="3"/>
     </row>
-    <row r="238" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE238" s="3"/>
       <c r="AF238" s="3"/>
       <c r="AG238" s="3"/>
@@ -6330,7 +6348,7 @@
       <c r="AI238" s="3"/>
       <c r="AJ238" s="3"/>
     </row>
-    <row r="239" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE239" s="3"/>
       <c r="AF239" s="3"/>
       <c r="AG239" s="3"/>
@@ -6338,7 +6356,7 @@
       <c r="AI239" s="3"/>
       <c r="AJ239" s="3"/>
     </row>
-    <row r="240" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE240" s="3"/>
       <c r="AF240" s="3"/>
       <c r="AG240" s="3"/>
@@ -6346,7 +6364,7 @@
       <c r="AI240" s="3"/>
       <c r="AJ240" s="3"/>
     </row>
-    <row r="241" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE241" s="3"/>
       <c r="AF241" s="3"/>
       <c r="AG241" s="3"/>
@@ -6354,7 +6372,7 @@
       <c r="AI241" s="3"/>
       <c r="AJ241" s="3"/>
     </row>
-    <row r="242" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE242" s="3"/>
       <c r="AF242" s="3"/>
       <c r="AG242" s="3"/>
@@ -6362,7 +6380,7 @@
       <c r="AI242" s="3"/>
       <c r="AJ242" s="3"/>
     </row>
-    <row r="243" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE243" s="3"/>
       <c r="AF243" s="3"/>
       <c r="AG243" s="3"/>
@@ -6370,7 +6388,7 @@
       <c r="AI243" s="3"/>
       <c r="AJ243" s="3"/>
     </row>
-    <row r="244" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE244" s="3"/>
       <c r="AF244" s="3"/>
       <c r="AG244" s="3"/>
@@ -6378,7 +6396,7 @@
       <c r="AI244" s="3"/>
       <c r="AJ244" s="3"/>
     </row>
-    <row r="245" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE245" s="3"/>
       <c r="AF245" s="3"/>
       <c r="AG245" s="3"/>
@@ -6386,7 +6404,7 @@
       <c r="AI245" s="3"/>
       <c r="AJ245" s="3"/>
     </row>
-    <row r="246" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE246" s="3"/>
       <c r="AF246" s="3"/>
       <c r="AG246" s="3"/>
@@ -6394,7 +6412,7 @@
       <c r="AI246" s="3"/>
       <c r="AJ246" s="3"/>
     </row>
-    <row r="247" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE247" s="3"/>
       <c r="AF247" s="3"/>
       <c r="AG247" s="3"/>
@@ -6402,7 +6420,7 @@
       <c r="AI247" s="3"/>
       <c r="AJ247" s="3"/>
     </row>
-    <row r="248" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE248" s="3"/>
       <c r="AF248" s="3"/>
       <c r="AG248" s="3"/>
@@ -6410,7 +6428,7 @@
       <c r="AI248" s="3"/>
       <c r="AJ248" s="3"/>
     </row>
-    <row r="249" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE249" s="3"/>
       <c r="AF249" s="3"/>
       <c r="AG249" s="3"/>
@@ -6418,7 +6436,7 @@
       <c r="AI249" s="3"/>
       <c r="AJ249" s="3"/>
     </row>
-    <row r="250" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE250" s="3"/>
       <c r="AF250" s="3"/>
       <c r="AG250" s="3"/>
@@ -6426,7 +6444,7 @@
       <c r="AI250" s="3"/>
       <c r="AJ250" s="3"/>
     </row>
-    <row r="251" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE251" s="3"/>
       <c r="AF251" s="3"/>
       <c r="AG251" s="3"/>
@@ -6434,7 +6452,7 @@
       <c r="AI251" s="3"/>
       <c r="AJ251" s="3"/>
     </row>
-    <row r="252" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE252" s="3"/>
       <c r="AF252" s="3"/>
       <c r="AG252" s="3"/>
@@ -6442,7 +6460,7 @@
       <c r="AI252" s="3"/>
       <c r="AJ252" s="3"/>
     </row>
-    <row r="253" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE253" s="3"/>
       <c r="AF253" s="3"/>
       <c r="AG253" s="3"/>
@@ -6450,7 +6468,7 @@
       <c r="AI253" s="3"/>
       <c r="AJ253" s="3"/>
     </row>
-    <row r="254" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE254" s="3"/>
       <c r="AF254" s="3"/>
       <c r="AG254" s="3"/>
@@ -6458,7 +6476,7 @@
       <c r="AI254" s="3"/>
       <c r="AJ254" s="3"/>
     </row>
-    <row r="255" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE255" s="3"/>
       <c r="AF255" s="3"/>
       <c r="AG255" s="3"/>
@@ -6466,7 +6484,7 @@
       <c r="AI255" s="3"/>
       <c r="AJ255" s="3"/>
     </row>
-    <row r="256" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE256" s="3"/>
       <c r="AF256" s="3"/>
       <c r="AG256" s="3"/>
@@ -6474,7 +6492,7 @@
       <c r="AI256" s="3"/>
       <c r="AJ256" s="3"/>
     </row>
-    <row r="257" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE257" s="3"/>
       <c r="AF257" s="3"/>
       <c r="AG257" s="3"/>
@@ -6482,7 +6500,7 @@
       <c r="AI257" s="3"/>
       <c r="AJ257" s="3"/>
     </row>
-    <row r="258" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE258" s="3"/>
       <c r="AF258" s="3"/>
       <c r="AG258" s="3"/>
@@ -6490,7 +6508,7 @@
       <c r="AI258" s="3"/>
       <c r="AJ258" s="3"/>
     </row>
-    <row r="259" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE259" s="3"/>
       <c r="AF259" s="3"/>
       <c r="AG259" s="3"/>
@@ -6498,7 +6516,7 @@
       <c r="AI259" s="3"/>
       <c r="AJ259" s="3"/>
     </row>
-    <row r="260" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE260" s="3"/>
       <c r="AF260" s="3"/>
       <c r="AG260" s="3"/>
@@ -6506,7 +6524,7 @@
       <c r="AI260" s="3"/>
       <c r="AJ260" s="3"/>
     </row>
-    <row r="261" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE261" s="3"/>
       <c r="AF261" s="3"/>
       <c r="AG261" s="3"/>
@@ -6514,7 +6532,7 @@
       <c r="AI261" s="3"/>
       <c r="AJ261" s="3"/>
     </row>
-    <row r="262" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE262" s="3"/>
       <c r="AF262" s="3"/>
       <c r="AG262" s="3"/>
@@ -6522,7 +6540,7 @@
       <c r="AI262" s="3"/>
       <c r="AJ262" s="3"/>
     </row>
-    <row r="263" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE263" s="3"/>
       <c r="AF263" s="3"/>
       <c r="AG263" s="3"/>
@@ -6530,7 +6548,7 @@
       <c r="AI263" s="3"/>
       <c r="AJ263" s="3"/>
     </row>
-    <row r="264" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE264" s="3"/>
       <c r="AF264" s="3"/>
       <c r="AG264" s="3"/>
@@ -6538,7 +6556,7 @@
       <c r="AI264" s="3"/>
       <c r="AJ264" s="3"/>
     </row>
-    <row r="265" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE265" s="3"/>
       <c r="AF265" s="3"/>
       <c r="AG265" s="3"/>
@@ -6546,7 +6564,7 @@
       <c r="AI265" s="3"/>
       <c r="AJ265" s="3"/>
     </row>
-    <row r="266" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE266" s="3"/>
       <c r="AF266" s="3"/>
       <c r="AG266" s="3"/>
@@ -6554,7 +6572,7 @@
       <c r="AI266" s="3"/>
       <c r="AJ266" s="3"/>
     </row>
-    <row r="267" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE267" s="3"/>
       <c r="AF267" s="3"/>
       <c r="AG267" s="3"/>
@@ -6562,7 +6580,7 @@
       <c r="AI267" s="3"/>
       <c r="AJ267" s="3"/>
     </row>
-    <row r="268" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE268" s="3"/>
       <c r="AF268" s="3"/>
       <c r="AG268" s="3"/>
@@ -6570,7 +6588,7 @@
       <c r="AI268" s="3"/>
       <c r="AJ268" s="3"/>
     </row>
-    <row r="269" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE269" s="3"/>
       <c r="AF269" s="3"/>
       <c r="AG269" s="3"/>
@@ -6578,7 +6596,7 @@
       <c r="AI269" s="3"/>
       <c r="AJ269" s="3"/>
     </row>
-    <row r="270" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE270" s="3"/>
       <c r="AF270" s="3"/>
       <c r="AG270" s="3"/>
@@ -6586,7 +6604,7 @@
       <c r="AI270" s="3"/>
       <c r="AJ270" s="3"/>
     </row>
-    <row r="271" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE271" s="3"/>
       <c r="AF271" s="3"/>
       <c r="AG271" s="3"/>
@@ -6594,7 +6612,7 @@
       <c r="AI271" s="3"/>
       <c r="AJ271" s="3"/>
     </row>
-    <row r="272" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE272" s="3"/>
       <c r="AF272" s="3"/>
       <c r="AG272" s="3"/>
@@ -6602,7 +6620,7 @@
       <c r="AI272" s="3"/>
       <c r="AJ272" s="3"/>
     </row>
-    <row r="273" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE273" s="3"/>
       <c r="AF273" s="3"/>
       <c r="AG273" s="3"/>
@@ -6610,7 +6628,7 @@
       <c r="AI273" s="3"/>
       <c r="AJ273" s="3"/>
     </row>
-    <row r="274" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE274" s="3"/>
       <c r="AF274" s="3"/>
       <c r="AG274" s="3"/>
@@ -6618,7 +6636,7 @@
       <c r="AI274" s="3"/>
       <c r="AJ274" s="3"/>
     </row>
-    <row r="275" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE275" s="3"/>
       <c r="AF275" s="3"/>
       <c r="AG275" s="3"/>
@@ -6626,7 +6644,7 @@
       <c r="AI275" s="3"/>
       <c r="AJ275" s="3"/>
     </row>
-    <row r="276" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE276" s="3"/>
       <c r="AF276" s="3"/>
       <c r="AG276" s="3"/>
@@ -6634,7 +6652,7 @@
       <c r="AI276" s="3"/>
       <c r="AJ276" s="3"/>
     </row>
-    <row r="277" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE277" s="3"/>
       <c r="AF277" s="3"/>
       <c r="AG277" s="3"/>
@@ -6642,7 +6660,7 @@
       <c r="AI277" s="3"/>
       <c r="AJ277" s="3"/>
     </row>
-    <row r="278" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE278" s="3"/>
       <c r="AF278" s="3"/>
       <c r="AG278" s="3"/>
@@ -6650,7 +6668,7 @@
       <c r="AI278" s="3"/>
       <c r="AJ278" s="3"/>
     </row>
-    <row r="279" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE279" s="3"/>
       <c r="AF279" s="3"/>
       <c r="AG279" s="3"/>
@@ -6658,7 +6676,7 @@
       <c r="AI279" s="3"/>
       <c r="AJ279" s="3"/>
     </row>
-    <row r="280" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE280" s="3"/>
       <c r="AF280" s="3"/>
       <c r="AG280" s="3"/>
@@ -6666,7 +6684,7 @@
       <c r="AI280" s="3"/>
       <c r="AJ280" s="3"/>
     </row>
-    <row r="281" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE281" s="3"/>
       <c r="AF281" s="3"/>
       <c r="AG281" s="3"/>
@@ -6674,7 +6692,7 @@
       <c r="AI281" s="3"/>
       <c r="AJ281" s="3"/>
     </row>
-    <row r="282" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE282" s="3"/>
       <c r="AF282" s="3"/>
       <c r="AG282" s="3"/>
@@ -6682,7 +6700,7 @@
       <c r="AI282" s="3"/>
       <c r="AJ282" s="3"/>
     </row>
-    <row r="283" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE283" s="3"/>
       <c r="AF283" s="3"/>
       <c r="AG283" s="3"/>
@@ -6690,7 +6708,7 @@
       <c r="AI283" s="3"/>
       <c r="AJ283" s="3"/>
     </row>
-    <row r="284" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE284" s="3"/>
       <c r="AF284" s="3"/>
       <c r="AG284" s="3"/>
@@ -6698,7 +6716,7 @@
       <c r="AI284" s="3"/>
       <c r="AJ284" s="3"/>
     </row>
-    <row r="285" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE285" s="3"/>
       <c r="AF285" s="3"/>
       <c r="AG285" s="3"/>
@@ -6706,7 +6724,7 @@
       <c r="AI285" s="3"/>
       <c r="AJ285" s="3"/>
     </row>
-    <row r="286" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE286" s="3"/>
       <c r="AF286" s="3"/>
       <c r="AG286" s="3"/>
@@ -6714,7 +6732,7 @@
       <c r="AI286" s="3"/>
       <c r="AJ286" s="3"/>
     </row>
-    <row r="287" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE287" s="3"/>
       <c r="AF287" s="3"/>
       <c r="AG287" s="3"/>
@@ -6722,7 +6740,7 @@
       <c r="AI287" s="3"/>
       <c r="AJ287" s="3"/>
     </row>
-    <row r="288" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE288" s="3"/>
       <c r="AF288" s="3"/>
       <c r="AG288" s="3"/>
@@ -6730,7 +6748,7 @@
       <c r="AI288" s="3"/>
       <c r="AJ288" s="3"/>
     </row>
-    <row r="289" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE289" s="3"/>
       <c r="AF289" s="3"/>
       <c r="AG289" s="3"/>
@@ -6738,7 +6756,7 @@
       <c r="AI289" s="3"/>
       <c r="AJ289" s="3"/>
     </row>
-    <row r="290" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE290" s="3"/>
       <c r="AF290" s="3"/>
       <c r="AG290" s="3"/>
@@ -6746,7 +6764,7 @@
       <c r="AI290" s="3"/>
       <c r="AJ290" s="3"/>
     </row>
-    <row r="291" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE291" s="3"/>
       <c r="AF291" s="3"/>
       <c r="AG291" s="3"/>
@@ -6754,7 +6772,7 @@
       <c r="AI291" s="3"/>
       <c r="AJ291" s="3"/>
     </row>
-    <row r="292" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE292" s="3"/>
       <c r="AF292" s="3"/>
       <c r="AG292" s="3"/>
@@ -6762,7 +6780,7 @@
       <c r="AI292" s="3"/>
       <c r="AJ292" s="3"/>
     </row>
-    <row r="293" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE293" s="3"/>
       <c r="AF293" s="3"/>
       <c r="AG293" s="3"/>
@@ -6770,7 +6788,7 @@
       <c r="AI293" s="3"/>
       <c r="AJ293" s="3"/>
     </row>
-    <row r="294" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE294" s="3"/>
       <c r="AF294" s="3"/>
       <c r="AG294" s="3"/>
@@ -6778,7 +6796,7 @@
       <c r="AI294" s="3"/>
       <c r="AJ294" s="3"/>
     </row>
-    <row r="295" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE295" s="3"/>
       <c r="AF295" s="3"/>
       <c r="AG295" s="3"/>
@@ -6786,7 +6804,7 @@
       <c r="AI295" s="3"/>
       <c r="AJ295" s="3"/>
     </row>
-    <row r="296" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE296" s="3"/>
       <c r="AF296" s="3"/>
       <c r="AG296" s="3"/>
@@ -6794,7 +6812,7 @@
       <c r="AI296" s="3"/>
       <c r="AJ296" s="3"/>
     </row>
-    <row r="297" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE297" s="3"/>
       <c r="AF297" s="3"/>
       <c r="AG297" s="3"/>
@@ -6802,7 +6820,7 @@
       <c r="AI297" s="3"/>
       <c r="AJ297" s="3"/>
     </row>
-    <row r="298" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE298" s="3"/>
       <c r="AF298" s="3"/>
       <c r="AG298" s="3"/>
@@ -6810,7 +6828,7 @@
       <c r="AI298" s="3"/>
       <c r="AJ298" s="3"/>
     </row>
-    <row r="299" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE299" s="3"/>
       <c r="AF299" s="3"/>
       <c r="AG299" s="3"/>
@@ -6818,7 +6836,7 @@
       <c r="AI299" s="3"/>
       <c r="AJ299" s="3"/>
     </row>
-    <row r="300" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE300" s="3"/>
       <c r="AF300" s="3"/>
       <c r="AG300" s="3"/>
@@ -6826,7 +6844,7 @@
       <c r="AI300" s="3"/>
       <c r="AJ300" s="3"/>
     </row>
-    <row r="301" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE301" s="3"/>
       <c r="AF301" s="3"/>
       <c r="AG301" s="3"/>
@@ -6834,7 +6852,7 @@
       <c r="AI301" s="3"/>
       <c r="AJ301" s="3"/>
     </row>
-    <row r="302" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE302" s="3"/>
       <c r="AF302" s="3"/>
       <c r="AG302" s="3"/>
@@ -6842,7 +6860,7 @@
       <c r="AI302" s="3"/>
       <c r="AJ302" s="3"/>
     </row>
-    <row r="303" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE303" s="3"/>
       <c r="AF303" s="3"/>
       <c r="AG303" s="3"/>
@@ -6850,7 +6868,7 @@
       <c r="AI303" s="3"/>
       <c r="AJ303" s="3"/>
     </row>
-    <row r="304" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE304" s="3"/>
       <c r="AF304" s="3"/>
       <c r="AG304" s="3"/>
@@ -6858,7 +6876,7 @@
       <c r="AI304" s="3"/>
       <c r="AJ304" s="3"/>
     </row>
-    <row r="305" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE305" s="3"/>
       <c r="AF305" s="3"/>
       <c r="AG305" s="3"/>
@@ -6866,7 +6884,7 @@
       <c r="AI305" s="3"/>
       <c r="AJ305" s="3"/>
     </row>
-    <row r="306" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE306" s="3"/>
       <c r="AF306" s="3"/>
       <c r="AG306" s="3"/>
@@ -6874,7 +6892,7 @@
       <c r="AI306" s="3"/>
       <c r="AJ306" s="3"/>
     </row>
-    <row r="307" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE307" s="3"/>
       <c r="AF307" s="3"/>
       <c r="AG307" s="3"/>
@@ -6882,7 +6900,7 @@
       <c r="AI307" s="3"/>
       <c r="AJ307" s="3"/>
     </row>
-    <row r="308" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE308" s="3"/>
       <c r="AF308" s="3"/>
       <c r="AG308" s="3"/>
@@ -6890,7 +6908,7 @@
       <c r="AI308" s="3"/>
       <c r="AJ308" s="3"/>
     </row>
-    <row r="309" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE309" s="3"/>
       <c r="AF309" s="3"/>
       <c r="AG309" s="3"/>
@@ -6898,7 +6916,7 @@
       <c r="AI309" s="3"/>
       <c r="AJ309" s="3"/>
     </row>
-    <row r="310" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE310" s="3"/>
       <c r="AF310" s="3"/>
       <c r="AG310" s="3"/>
@@ -6906,7 +6924,7 @@
       <c r="AI310" s="3"/>
       <c r="AJ310" s="3"/>
     </row>
-    <row r="311" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE311" s="3"/>
       <c r="AF311" s="3"/>
       <c r="AG311" s="3"/>
@@ -6914,7 +6932,7 @@
       <c r="AI311" s="3"/>
       <c r="AJ311" s="3"/>
     </row>
-    <row r="312" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE312" s="3"/>
       <c r="AF312" s="3"/>
       <c r="AG312" s="3"/>
@@ -6922,7 +6940,7 @@
       <c r="AI312" s="3"/>
       <c r="AJ312" s="3"/>
     </row>
-    <row r="313" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE313" s="3"/>
       <c r="AF313" s="3"/>
       <c r="AG313" s="3"/>
@@ -6930,7 +6948,7 @@
       <c r="AI313" s="3"/>
       <c r="AJ313" s="3"/>
     </row>
-    <row r="314" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE314" s="3"/>
       <c r="AF314" s="3"/>
       <c r="AG314" s="3"/>
@@ -6938,7 +6956,7 @@
       <c r="AI314" s="3"/>
       <c r="AJ314" s="3"/>
     </row>
-    <row r="315" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE315" s="3"/>
       <c r="AF315" s="3"/>
       <c r="AG315" s="3"/>
@@ -6946,7 +6964,7 @@
       <c r="AI315" s="3"/>
       <c r="AJ315" s="3"/>
     </row>
-    <row r="316" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE316" s="3"/>
       <c r="AF316" s="3"/>
       <c r="AG316" s="3"/>
@@ -6954,7 +6972,7 @@
       <c r="AI316" s="3"/>
       <c r="AJ316" s="3"/>
     </row>
-    <row r="317" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE317" s="3"/>
       <c r="AF317" s="3"/>
       <c r="AG317" s="3"/>
@@ -6962,7 +6980,7 @@
       <c r="AI317" s="3"/>
       <c r="AJ317" s="3"/>
     </row>
-    <row r="318" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE318" s="3"/>
       <c r="AF318" s="3"/>
       <c r="AG318" s="3"/>
@@ -6970,7 +6988,7 @@
       <c r="AI318" s="3"/>
       <c r="AJ318" s="3"/>
     </row>
-    <row r="319" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE319" s="3"/>
       <c r="AF319" s="3"/>
       <c r="AG319" s="3"/>
@@ -6978,7 +6996,7 @@
       <c r="AI319" s="3"/>
       <c r="AJ319" s="3"/>
     </row>
-    <row r="320" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE320" s="3"/>
       <c r="AF320" s="3"/>
       <c r="AG320" s="3"/>
@@ -6986,7 +7004,7 @@
       <c r="AI320" s="3"/>
       <c r="AJ320" s="3"/>
     </row>
-    <row r="321" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE321" s="3"/>
       <c r="AF321" s="3"/>
       <c r="AG321" s="3"/>
@@ -6994,7 +7012,7 @@
       <c r="AI321" s="3"/>
       <c r="AJ321" s="3"/>
     </row>
-    <row r="322" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE322" s="3"/>
       <c r="AF322" s="3"/>
       <c r="AG322" s="3"/>
@@ -7002,7 +7020,7 @@
       <c r="AI322" s="3"/>
       <c r="AJ322" s="3"/>
     </row>
-    <row r="323" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE323" s="3"/>
       <c r="AF323" s="3"/>
       <c r="AG323" s="3"/>
@@ -7010,7 +7028,7 @@
       <c r="AI323" s="3"/>
       <c r="AJ323" s="3"/>
     </row>
-    <row r="324" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE324" s="3"/>
       <c r="AF324" s="3"/>
       <c r="AG324" s="3"/>
@@ -7018,7 +7036,7 @@
       <c r="AI324" s="3"/>
       <c r="AJ324" s="3"/>
     </row>
-    <row r="325" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE325" s="3"/>
       <c r="AF325" s="3"/>
       <c r="AG325" s="3"/>
@@ -7026,7 +7044,7 @@
       <c r="AI325" s="3"/>
       <c r="AJ325" s="3"/>
     </row>
-    <row r="326" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE326" s="3"/>
       <c r="AF326" s="3"/>
       <c r="AG326" s="3"/>
@@ -7034,7 +7052,7 @@
       <c r="AI326" s="3"/>
       <c r="AJ326" s="3"/>
     </row>
-    <row r="327" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE327" s="3"/>
       <c r="AF327" s="3"/>
       <c r="AG327" s="3"/>
@@ -7042,7 +7060,7 @@
       <c r="AI327" s="3"/>
       <c r="AJ327" s="3"/>
     </row>
-    <row r="328" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE328" s="3"/>
       <c r="AF328" s="3"/>
       <c r="AG328" s="3"/>
@@ -7050,7 +7068,7 @@
       <c r="AI328" s="3"/>
       <c r="AJ328" s="3"/>
     </row>
-    <row r="329" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE329" s="3"/>
       <c r="AF329" s="3"/>
       <c r="AG329" s="3"/>
@@ -7058,7 +7076,7 @@
       <c r="AI329" s="3"/>
       <c r="AJ329" s="3"/>
     </row>
-    <row r="330" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE330" s="3"/>
       <c r="AF330" s="3"/>
       <c r="AG330" s="3"/>
@@ -7066,7 +7084,7 @@
       <c r="AI330" s="3"/>
       <c r="AJ330" s="3"/>
     </row>
-    <row r="331" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE331" s="3"/>
       <c r="AF331" s="3"/>
       <c r="AG331" s="3"/>
@@ -7074,7 +7092,7 @@
       <c r="AI331" s="3"/>
       <c r="AJ331" s="3"/>
     </row>
-    <row r="332" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE332" s="3"/>
       <c r="AF332" s="3"/>
       <c r="AG332" s="3"/>
@@ -7082,7 +7100,7 @@
       <c r="AI332" s="3"/>
       <c r="AJ332" s="3"/>
     </row>
-    <row r="333" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE333" s="3"/>
       <c r="AF333" s="3"/>
       <c r="AG333" s="3"/>
@@ -7090,7 +7108,7 @@
       <c r="AI333" s="3"/>
       <c r="AJ333" s="3"/>
     </row>
-    <row r="334" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE334" s="3"/>
       <c r="AF334" s="3"/>
       <c r="AG334" s="3"/>
@@ -7098,7 +7116,7 @@
       <c r="AI334" s="3"/>
       <c r="AJ334" s="3"/>
     </row>
-    <row r="335" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE335" s="3"/>
       <c r="AF335" s="3"/>
       <c r="AG335" s="3"/>
@@ -7106,7 +7124,7 @@
       <c r="AI335" s="3"/>
       <c r="AJ335" s="3"/>
     </row>
-    <row r="336" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE336" s="3"/>
       <c r="AF336" s="3"/>
       <c r="AG336" s="3"/>
@@ -7114,7 +7132,7 @@
       <c r="AI336" s="3"/>
       <c r="AJ336" s="3"/>
     </row>
-    <row r="337" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE337" s="3"/>
       <c r="AF337" s="3"/>
       <c r="AG337" s="3"/>
@@ -7122,7 +7140,7 @@
       <c r="AI337" s="3"/>
       <c r="AJ337" s="3"/>
     </row>
-    <row r="338" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE338" s="3"/>
       <c r="AF338" s="3"/>
       <c r="AG338" s="3"/>
@@ -7130,7 +7148,7 @@
       <c r="AI338" s="3"/>
       <c r="AJ338" s="3"/>
     </row>
-    <row r="339" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE339" s="3"/>
       <c r="AF339" s="3"/>
       <c r="AG339" s="3"/>
@@ -7138,7 +7156,7 @@
       <c r="AI339" s="3"/>
       <c r="AJ339" s="3"/>
     </row>
-    <row r="340" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE340" s="3"/>
       <c r="AF340" s="3"/>
       <c r="AG340" s="3"/>
@@ -7146,7 +7164,7 @@
       <c r="AI340" s="3"/>
       <c r="AJ340" s="3"/>
     </row>
-    <row r="341" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE341" s="3"/>
       <c r="AF341" s="3"/>
       <c r="AG341" s="3"/>
@@ -7154,7 +7172,7 @@
       <c r="AI341" s="3"/>
       <c r="AJ341" s="3"/>
     </row>
-    <row r="342" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE342" s="3"/>
       <c r="AF342" s="3"/>
       <c r="AG342" s="3"/>
@@ -7162,7 +7180,7 @@
       <c r="AI342" s="3"/>
       <c r="AJ342" s="3"/>
     </row>
-    <row r="343" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE343" s="3"/>
       <c r="AF343" s="3"/>
       <c r="AG343" s="3"/>
@@ -7170,7 +7188,7 @@
       <c r="AI343" s="3"/>
       <c r="AJ343" s="3"/>
     </row>
-    <row r="344" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE344" s="3"/>
       <c r="AF344" s="3"/>
       <c r="AG344" s="3"/>
@@ -7178,7 +7196,7 @@
       <c r="AI344" s="3"/>
       <c r="AJ344" s="3"/>
     </row>
-    <row r="345" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE345" s="3"/>
       <c r="AF345" s="3"/>
       <c r="AG345" s="3"/>
@@ -7186,7 +7204,7 @@
       <c r="AI345" s="3"/>
       <c r="AJ345" s="3"/>
     </row>
-    <row r="346" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE346" s="3"/>
       <c r="AF346" s="3"/>
       <c r="AG346" s="3"/>
@@ -7194,7 +7212,7 @@
       <c r="AI346" s="3"/>
       <c r="AJ346" s="3"/>
     </row>
-    <row r="347" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE347" s="3"/>
       <c r="AF347" s="3"/>
       <c r="AG347" s="3"/>
@@ -7202,7 +7220,7 @@
       <c r="AI347" s="3"/>
       <c r="AJ347" s="3"/>
     </row>
-    <row r="348" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE348" s="3"/>
       <c r="AF348" s="3"/>
       <c r="AG348" s="3"/>
@@ -7210,7 +7228,7 @@
       <c r="AI348" s="3"/>
       <c r="AJ348" s="3"/>
     </row>
-    <row r="349" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE349" s="3"/>
       <c r="AF349" s="3"/>
       <c r="AG349" s="3"/>
@@ -7218,7 +7236,7 @@
       <c r="AI349" s="3"/>
       <c r="AJ349" s="3"/>
     </row>
-    <row r="350" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE350" s="3"/>
       <c r="AF350" s="3"/>
       <c r="AG350" s="3"/>
@@ -7226,7 +7244,7 @@
       <c r="AI350" s="3"/>
       <c r="AJ350" s="3"/>
     </row>
-    <row r="351" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE351" s="3"/>
       <c r="AF351" s="3"/>
       <c r="AG351" s="3"/>
@@ -7234,7 +7252,7 @@
       <c r="AI351" s="3"/>
       <c r="AJ351" s="3"/>
     </row>
-    <row r="352" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE352" s="3"/>
       <c r="AF352" s="3"/>
       <c r="AG352" s="3"/>
@@ -7242,7 +7260,7 @@
       <c r="AI352" s="3"/>
       <c r="AJ352" s="3"/>
     </row>
-    <row r="353" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE353" s="3"/>
       <c r="AF353" s="3"/>
       <c r="AG353" s="3"/>
@@ -7250,7 +7268,7 @@
       <c r="AI353" s="3"/>
       <c r="AJ353" s="3"/>
     </row>
-    <row r="354" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE354" s="3"/>
       <c r="AF354" s="3"/>
       <c r="AG354" s="3"/>
@@ -7258,7 +7276,7 @@
       <c r="AI354" s="3"/>
       <c r="AJ354" s="3"/>
     </row>
-    <row r="355" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE355" s="3"/>
       <c r="AF355" s="3"/>
       <c r="AG355" s="3"/>
@@ -7266,7 +7284,7 @@
       <c r="AI355" s="3"/>
       <c r="AJ355" s="3"/>
     </row>
-    <row r="356" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE356" s="3"/>
       <c r="AF356" s="3"/>
       <c r="AG356" s="3"/>
@@ -7274,7 +7292,7 @@
       <c r="AI356" s="3"/>
       <c r="AJ356" s="3"/>
     </row>
-    <row r="357" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE357" s="3"/>
       <c r="AF357" s="3"/>
       <c r="AG357" s="3"/>
@@ -7282,7 +7300,7 @@
       <c r="AI357" s="3"/>
       <c r="AJ357" s="3"/>
     </row>
-    <row r="358" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE358" s="3"/>
       <c r="AF358" s="3"/>
       <c r="AG358" s="3"/>
@@ -7290,7 +7308,7 @@
       <c r="AI358" s="3"/>
       <c r="AJ358" s="3"/>
     </row>
-    <row r="359" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE359" s="3"/>
       <c r="AF359" s="3"/>
       <c r="AG359" s="3"/>
@@ -7298,7 +7316,7 @@
       <c r="AI359" s="3"/>
       <c r="AJ359" s="3"/>
     </row>
-    <row r="360" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE360" s="3"/>
       <c r="AF360" s="3"/>
       <c r="AG360" s="3"/>
@@ -7306,7 +7324,7 @@
       <c r="AI360" s="3"/>
       <c r="AJ360" s="3"/>
     </row>
-    <row r="361" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE361" s="3"/>
       <c r="AF361" s="3"/>
       <c r="AG361" s="3"/>
@@ -7314,7 +7332,7 @@
       <c r="AI361" s="3"/>
       <c r="AJ361" s="3"/>
     </row>
-    <row r="362" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE362" s="3"/>
       <c r="AF362" s="3"/>
       <c r="AG362" s="3"/>
@@ -7322,7 +7340,7 @@
       <c r="AI362" s="3"/>
       <c r="AJ362" s="3"/>
     </row>
-    <row r="363" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE363" s="3"/>
       <c r="AF363" s="3"/>
       <c r="AG363" s="3"/>
@@ -7330,7 +7348,7 @@
       <c r="AI363" s="3"/>
       <c r="AJ363" s="3"/>
     </row>
-    <row r="364" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE364" s="3"/>
       <c r="AF364" s="3"/>
       <c r="AG364" s="3"/>
@@ -7338,7 +7356,7 @@
       <c r="AI364" s="3"/>
       <c r="AJ364" s="3"/>
     </row>
-    <row r="365" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE365" s="3"/>
       <c r="AF365" s="3"/>
       <c r="AG365" s="3"/>
@@ -7346,7 +7364,7 @@
       <c r="AI365" s="3"/>
       <c r="AJ365" s="3"/>
     </row>
-    <row r="366" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE366" s="3"/>
       <c r="AF366" s="3"/>
       <c r="AG366" s="3"/>
@@ -7354,7 +7372,7 @@
       <c r="AI366" s="3"/>
       <c r="AJ366" s="3"/>
     </row>
-    <row r="367" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE367" s="3"/>
       <c r="AF367" s="3"/>
       <c r="AG367" s="3"/>
@@ -7362,7 +7380,7 @@
       <c r="AI367" s="3"/>
       <c r="AJ367" s="3"/>
     </row>
-    <row r="368" spans="31:36" s="2" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="31:36" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE368" s="3"/>
       <c r="AF368" s="3"/>
       <c r="AG368" s="3"/>
@@ -7372,21 +7390,103 @@
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="R66:R67"/>
-    <mergeCell ref="B56:C57"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B46:C47"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B51:C52"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="R56:R57"/>
-    <mergeCell ref="M59:N60"/>
-    <mergeCell ref="O59:P59"/>
-    <mergeCell ref="R59:S60"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G6:H7"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G16:H17"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G26:H27"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="G31:H32"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="M2:U3"/>
+    <mergeCell ref="B2:J3"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="R21:S22"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R11:S12"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="R6:S7"/>
+    <mergeCell ref="R16:S17"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M16:N17"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="M11:N12"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="AF7:AG7"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="AI7:AJ8"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="Y14:Y15"/>
+    <mergeCell ref="Y17:Z18"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="AD7:AE8"/>
+    <mergeCell ref="Y7:Z8"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Y12:Z13"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AI12:AJ13"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AI14:AI15"/>
+    <mergeCell ref="AF12:AG12"/>
+    <mergeCell ref="AD14:AD15"/>
+    <mergeCell ref="R42:S43"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="M37:N38"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="R27:S28"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="R32:S33"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M32:N33"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="M27:N28"/>
+    <mergeCell ref="O27:P27"/>
     <mergeCell ref="Y22:Z23"/>
     <mergeCell ref="AA22:AB22"/>
     <mergeCell ref="Y24:Y25"/>
@@ -7411,103 +7511,21 @@
     <mergeCell ref="R37:S38"/>
     <mergeCell ref="T37:U37"/>
     <mergeCell ref="R39:R40"/>
-    <mergeCell ref="R42:S43"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="M37:N38"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="M39:M40"/>
-    <mergeCell ref="R27:S28"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="R29:R30"/>
-    <mergeCell ref="R32:S33"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="M32:N33"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="M27:N28"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="AF7:AG7"/>
-    <mergeCell ref="AD9:AD10"/>
-    <mergeCell ref="AI7:AJ8"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="Y14:Y15"/>
-    <mergeCell ref="Y17:Z18"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="AD7:AE8"/>
-    <mergeCell ref="Y7:Z8"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="Y12:Z13"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AI12:AJ13"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AI14:AI15"/>
-    <mergeCell ref="AF12:AG12"/>
-    <mergeCell ref="AD14:AD15"/>
-    <mergeCell ref="M2:U3"/>
-    <mergeCell ref="B2:J3"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R21:S22"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="R11:S12"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="R6:S7"/>
-    <mergeCell ref="R16:S17"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M16:N17"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="M11:N12"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G26:H27"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="G31:H32"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B26:C27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G6:H7"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G11:H12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G16:H17"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="R66:R67"/>
+    <mergeCell ref="B56:C57"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B46:C47"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B51:C52"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="R56:R57"/>
+    <mergeCell ref="M59:N60"/>
+    <mergeCell ref="O59:P59"/>
+    <mergeCell ref="R59:S60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
